--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43735</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43644</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43553</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43371</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43280</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43189</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43007</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>78400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>122200</v>
+      </c>
+      <c r="F8" s="3">
         <v>115700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>84900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>80100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>113700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>100600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>99200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>90100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>101000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>92000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>82300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>82900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>113100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>59800</v>
+      </c>
+      <c r="F9" s="3">
         <v>39900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>40800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>38000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>53400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>50500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>47400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>42200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>52500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>44400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>48200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>42000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>52000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E10" s="3">
+        <v>62400</v>
+      </c>
+      <c r="F10" s="3">
         <v>75800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>44100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>42100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>60300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>50100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>51800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>47900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>48500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>47600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>34100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>40900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>61100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>21700</v>
+      </c>
+      <c r="F12" s="3">
         <v>20200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>21300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>21400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>21900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>22300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>21500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>23500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>22800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>21300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>27100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>24900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>24100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,52 +1002,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>600</v>
+      </c>
+      <c r="E14" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F14" s="3">
         <v>6900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>1000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>1700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>13500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1055,10 +1100,16 @@
         <v>800</v>
       </c>
       <c r="P15" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>800</v>
+      </c>
+      <c r="R15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>115500</v>
+      </c>
+      <c r="F17" s="3">
         <v>98900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>92600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>88500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>106300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>104300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>98500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>99500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>109600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>106200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>109700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>104100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>129300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F18" s="3">
         <v>16800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-7700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-8400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-9400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-14200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-27400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-21200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-16200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,113 +1243,127 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-3400</v>
       </c>
       <c r="L20" s="3">
         <v>-3300</v>
       </c>
       <c r="M20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="O20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2800</v>
       </c>
       <c r="P20" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F21" s="3">
         <v>20100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-3800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>9700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-7100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-6400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-11500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-25300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-18600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-11300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F22" s="3">
         <v>3000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>3000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>24</v>
@@ -1292,11 +1371,11 @@
       <c r="J22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F23" s="3">
         <v>12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-11100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-11600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-6900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-12600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-12000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-17500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-30900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-24300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-19100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>1200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-14700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-8600</v>
       </c>
       <c r="P24" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F26" s="3">
         <v>11700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-11800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-11300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>3300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-7800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-13700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>2700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-15600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-31500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-24000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F27" s="3">
         <v>11700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-11800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-11300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-7800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-13700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>2700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-15600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-31500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-24000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1600,14 +1721,14 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>-14500</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>-14500</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2700</v>
-      </c>
-      <c r="J32" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>3400</v>
       </c>
       <c r="L32" s="3">
         <v>3300</v>
       </c>
       <c r="M32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O32" s="3">
         <v>3500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2800</v>
       </c>
       <c r="P32" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R32" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F33" s="3">
         <v>11700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-11800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-11300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-13700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-15600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-31500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-24000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F35" s="3">
         <v>11700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-11800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-11300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-13700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-15600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-31500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-24000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43735</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43644</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43553</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43371</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43280</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43189</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43007</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>93100</v>
+      </c>
+      <c r="F41" s="3">
         <v>66700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>58100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>69900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>66000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>61700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>54100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>52000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>57000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>50000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>52900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>55300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>55600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,206 +2229,236 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>6900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>109800</v>
+      </c>
+      <c r="F43" s="3">
         <v>114900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>74700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>69800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>92900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>89100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>85400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>86500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>76500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>78100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>66700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>75800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>92700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E44" s="3">
         <v>29000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="G44" s="3">
         <v>27700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>29300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>25600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>23300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>23000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>25100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>26000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>31800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>35100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>39900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>41200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F45" s="3">
         <v>26400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>25000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>12000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>12100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>16600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>18200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>16200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>18000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>21400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>20400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>231600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>251400</v>
+      </c>
+      <c r="F46" s="3">
         <v>236900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>185500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>181100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>196700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>187200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>179100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>181800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>171800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>176100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>172800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>192400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>216800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E47" s="3">
+        <v>19500</v>
+      </c>
+      <c r="F47" s="3">
         <v>18700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>25400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>23800</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>24</v>
@@ -2257,11 +2466,11 @@
       <c r="J47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>63400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>50400</v>
+      </c>
+      <c r="F48" s="3">
         <v>46600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>49700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>42600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>22300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>24200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>25600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>27700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>29300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>30700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>31600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>31700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>32200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>241400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>244200</v>
+      </c>
+      <c r="F49" s="3">
         <v>245300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>249000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>250600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>253400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>256500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>258200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>263000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>264100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>265200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>265900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>265100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>266500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F52" s="3">
         <v>20700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>17100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>16200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>38400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>38600</v>
-      </c>
-      <c r="I52" s="3">
-        <v>42900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>43600</v>
       </c>
       <c r="K52" s="3">
         <v>42900</v>
       </c>
       <c r="L52" s="3">
+        <v>43600</v>
+      </c>
+      <c r="M52" s="3">
+        <v>42900</v>
+      </c>
+      <c r="N52" s="3">
         <v>39900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>37700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>41500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>38600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>576300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>587300</v>
+      </c>
+      <c r="F54" s="3">
         <v>568200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>526700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>514200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>510800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>506400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>505800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>516200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>508100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>512000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>508000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>530700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>554100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>40900</v>
+      </c>
+      <c r="F57" s="3">
         <v>31200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>31800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>25400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>33800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>29400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>29000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>27600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>33100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>31800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>31300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>22300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>28900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>50400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>7700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>6800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>7300</v>
       </c>
       <c r="P58" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="R58" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>101200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100900</v>
+      </c>
+      <c r="F59" s="3">
         <v>108300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>105100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>101500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>95500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>108100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>107300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>101400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>107100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>106800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>112300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>108700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>196700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>191900</v>
+      </c>
+      <c r="F60" s="3">
         <v>146500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>138300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>134100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>136400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>137300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>138800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>142400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>142100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>146300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>145200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>141400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>144900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E61" s="3">
+        <v>101600</v>
+      </c>
+      <c r="F61" s="3">
         <v>140600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>134800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>128800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>127500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>126400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>126000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>125600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>124100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>122800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>115200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>118300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>117200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>41400</v>
+      </c>
+      <c r="F62" s="3">
         <v>40100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>41600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>30700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>18700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>19700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>20300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>22200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>23500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>22300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>20000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>19500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>21400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>340000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>334900</v>
+      </c>
+      <c r="F66" s="3">
         <v>327200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>314700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>293600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>282600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>283400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>285000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>290300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>289700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>291400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>280400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>279300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>283400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2093900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2071900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>236300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>252400</v>
+      </c>
+      <c r="F76" s="3">
         <v>241100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>212100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>220600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>228300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>223000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>220700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>226000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>218300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>220600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>227600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>251400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>270600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43917</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43735</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43644</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43553</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43371</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43280</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43189</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43007</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F81" s="3">
         <v>11700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-11800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-11300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-13700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-15600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-31500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-24000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="E83" s="3">
         <v>4900</v>
       </c>
       <c r="F83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G83" s="3">
         <v>4900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I83" s="3">
         <v>5100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>5200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>5400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>5600</v>
-      </c>
-      <c r="K83" s="3">
-        <v>5600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>6000</v>
       </c>
       <c r="M83" s="3">
         <v>5600</v>
       </c>
       <c r="N83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P83" s="3">
         <v>5700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>7700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F89" s="3">
         <v>5800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-8900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>4200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>6600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>9900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>9000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-8600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>5700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>13100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-3100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-2700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-6400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>7700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-2300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-2700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>3700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-2100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F100" s="3">
         <v>5400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>6500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-5800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>1900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>8400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-5900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-1200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F102" s="3">
         <v>8600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-11900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>4100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-6400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>6800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-2800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>10900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E7" s="2">
         <v>43917</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43644</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43553</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43371</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43280</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43189</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43007</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>74000</v>
+      </c>
+      <c r="E8" s="3">
         <v>78400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>115700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>84900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>80100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>113700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>99200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>90100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>101000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>92000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>82300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>82900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>113100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>36200</v>
+      </c>
+      <c r="E9" s="3">
         <v>41800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>59800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>39900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>40800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>38000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>53400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>50500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>47400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>42200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>44400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>48200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>42000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>52000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E10" s="3">
         <v>36600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>62400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>75800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>44100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>42100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>50100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>48500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>34100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>40900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>61100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E12" s="3">
         <v>22100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,63 +1025,69 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>900</v>
+      </c>
+      <c r="E14" s="3">
         <v>600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6900</v>
-      </c>
-      <c r="G14" s="3">
-        <v>400</v>
       </c>
       <c r="H14" s="3">
         <v>400</v>
       </c>
       <c r="I14" s="3">
+        <v>400</v>
+      </c>
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
@@ -1106,10 +1129,13 @@
         <v>800</v>
       </c>
       <c r="R15" s="3">
+        <v>800</v>
+      </c>
+      <c r="S15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>84400</v>
+      </c>
+      <c r="E17" s="3">
         <v>96500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>115500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>98900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>92600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>88500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>106300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>104300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>98500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>99500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>109600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>106200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>129300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-18100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>6700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-9400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-16200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,128 +1278,135 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-11500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-25300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-11300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>3000</v>
       </c>
       <c r="G22" s="3">
         <v>3000</v>
       </c>
       <c r="H22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I22" s="3">
         <v>2900</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>24</v>
@@ -1377,8 +1417,8 @@
       <c r="L22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-21200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>3900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-11100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-6900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-17500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-30900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-19100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>900</v>
       </c>
       <c r="K24" s="3">
         <v>900</v>
       </c>
       <c r="L24" s="3">
+        <v>900</v>
+      </c>
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-14700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-8600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-22000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-11800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-13700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-31500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-10400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-22000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-11800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-13700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-31500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-10400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-22000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-11800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-13700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-31500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-10400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-22000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-11800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-13700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-31500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-10400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E38" s="2">
         <v>43917</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43644</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43553</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43371</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43280</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43189</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43007</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>77700</v>
+      </c>
+      <c r="E41" s="3">
         <v>71700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>93100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>66700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>58100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>69900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>66000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>61700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>54100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>52000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>57000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>50000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>52900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>55300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2235,113 +2325,122 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>6900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E43" s="3">
         <v>106000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>109800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>114900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>74700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>69800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>92900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>89100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>85400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>86500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>76500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>78100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>66700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>75800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>92700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E44" s="3">
         <v>34900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>29000</v>
       </c>
       <c r="F44" s="3">
         <v>29000</v>
       </c>
       <c r="G44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="H44" s="3">
         <v>27700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>29300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>25600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>23300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>25100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>26000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>31800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>35100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>39900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>41200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2349,119 +2448,125 @@
         <v>19000</v>
       </c>
       <c r="E45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="F45" s="3">
         <v>19500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>25000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>12000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>21400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E46" s="3">
         <v>231600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>251400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>236900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>185500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>181100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>196700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>187200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>179100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>181800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>171800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>176100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>172800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>192400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>216800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E47" s="3">
         <v>19900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19500</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>18700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>25400</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>23800</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>24</v>
@@ -2472,8 +2577,8 @@
       <c r="L47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E48" s="3">
         <v>63400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>50400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>46600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>49700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>42600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>22300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>25600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>27700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>31600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E49" s="3">
         <v>241400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>244200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>245300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>249000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>250600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>253400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>256500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>258200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>263000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>264100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>265200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>265900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>265100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>266500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E52" s="3">
         <v>20000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>42900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>43600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>42900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>39900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>37700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>41500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>557500</v>
+      </c>
+      <c r="E54" s="3">
         <v>576300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>587300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>568200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>526700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>514200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>510800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>506400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>505800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>516200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>508100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>512000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>508000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>530700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>554100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E57" s="3">
         <v>45200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>40900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>31200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>25400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>33800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>29400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>33100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>22300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>28900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E58" s="3">
         <v>50400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>50100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1700</v>
-      </c>
-      <c r="L58" s="3">
-        <v>7600</v>
       </c>
       <c r="M58" s="3">
         <v>7600</v>
       </c>
       <c r="N58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="O58" s="3">
         <v>7400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E59" s="3">
         <v>101200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>108300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>105100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>101500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>95500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>108100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>107300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>101400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>107100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>106800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>112300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>108700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>145400</v>
+      </c>
+      <c r="E60" s="3">
         <v>196700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>191900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>146500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>138300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>134100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>136400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>137300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>138800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>142400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>142100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>146300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>145200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>141400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>144900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E61" s="3">
         <v>101700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>101600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>140600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>134800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>128800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>127500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>126400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>126000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>125600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>124100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>122800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>115200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>118300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>117200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E62" s="3">
         <v>41600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>40100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>30700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>18700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>20300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>22200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>23500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>20000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>21400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>327200</v>
+      </c>
+      <c r="E66" s="3">
         <v>340000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>334900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>327200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>314700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>293600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>282600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>283400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>285000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>290300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>289700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>291400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>280400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>279300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>283400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2109300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>230300</v>
+      </c>
+      <c r="E76" s="3">
         <v>236300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>252400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>241100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>212100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>220600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>228300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>223000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>220700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>226000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>218300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>220600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>227600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>251400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>270600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44008</v>
+      </c>
+      <c r="E80" s="2">
         <v>43917</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43644</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43553</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43371</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43280</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43189</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43007</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-22000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-11800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-13700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-31500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-10400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E83" s="3">
         <v>4500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>4900</v>
       </c>
       <c r="H83" s="3">
         <v>4900</v>
       </c>
       <c r="I83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J83" s="3">
         <v>5100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>5600</v>
       </c>
       <c r="M83" s="3">
         <v>5600</v>
       </c>
       <c r="N83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="O83" s="3">
         <v>6000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>7700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-11200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1400</v>
       </c>
       <c r="K94" s="3">
         <v>-1400</v>
       </c>
       <c r="L94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>6500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>8400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>4100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>10900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44099</v>
+      </c>
+      <c r="E7" s="2">
         <v>44008</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43917</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43644</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43553</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43371</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43280</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43189</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43007</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>94900</v>
+      </c>
+      <c r="E8" s="3">
         <v>74000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>78400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>115700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>84900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>80100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>113700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>99200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>90100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>101000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>92000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>82300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>82900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>113100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E9" s="3">
         <v>36200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>41800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>39900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>40800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>38000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>53400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>47400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>42200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>52500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>44400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>48200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>42000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E10" s="3">
         <v>37800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>36600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>62400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>44100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>42100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>50100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>48500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>34100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>40900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>61100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E12" s="3">
         <v>19500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>21700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>21300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>27100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,69 +1045,75 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6900</v>
-      </c>
-      <c r="H14" s="3">
-        <v>400</v>
       </c>
       <c r="I14" s="3">
         <v>400</v>
       </c>
       <c r="J14" s="3">
+        <v>400</v>
+      </c>
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
         <v>700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
@@ -1132,10 +1155,13 @@
         <v>800</v>
       </c>
       <c r="S15" s="3">
+        <v>800</v>
+      </c>
+      <c r="T15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E17" s="3">
         <v>84400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>96500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>115500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>98900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>92600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>88500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>106300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>104300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>98500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>99500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>109600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>106200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>109700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>129300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-18100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>6700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-9400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-14200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-27400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-21200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-16200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,137 +1312,144 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-13800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>3400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-11500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-25300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-18600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-11300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>3100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>3000</v>
       </c>
       <c r="H22" s="3">
         <v>3000</v>
       </c>
       <c r="I22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="3">
         <v>2900</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>24</v>
@@ -1420,8 +1460,8 @@
       <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-21200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>3900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-6900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-17500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-30900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-24300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-19100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>900</v>
       </c>
       <c r="L24" s="3">
         <v>900</v>
       </c>
       <c r="M24" s="3">
+        <v>900</v>
+      </c>
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-14700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-8600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-22000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>5600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-13700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-24000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-10400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-22000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>5600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-13700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-24000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-10400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-22000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>5600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-13700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-24000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-10400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-22000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>5600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-13700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-24000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-10400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44099</v>
+      </c>
+      <c r="E38" s="2">
         <v>44008</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43917</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43644</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43553</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43371</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43280</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43189</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43007</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>70800</v>
+      </c>
+      <c r="E41" s="3">
         <v>77700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>71700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>93100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>66700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>58100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>69900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>66000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>54100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>52000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>57000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>50000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>52900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>55300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>55600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2328,248 +2418,263 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>6900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>91600</v>
+      </c>
+      <c r="E43" s="3">
         <v>79100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>106000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>109800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>114900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>74700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>69800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>92900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>89100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>85400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>86500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>76500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>78100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>66700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>75800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>92700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>36800</v>
+      </c>
+      <c r="E44" s="3">
         <v>32100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>34900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>29000</v>
       </c>
       <c r="G44" s="3">
         <v>29000</v>
       </c>
       <c r="H44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="I44" s="3">
         <v>27700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>29300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>25600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>23300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>25100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>26000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>31800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>35100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>39900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>41200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19000</v>
+        <v>14800</v>
       </c>
       <c r="E45" s="3">
         <v>19000</v>
       </c>
       <c r="F45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="G45" s="3">
         <v>19500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>25000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>12000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>214000</v>
+      </c>
+      <c r="E46" s="3">
         <v>207900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>231600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>251400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>236900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>185500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>181100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>196700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>187200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>179100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>181800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>171800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>176100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>172800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>192400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>216800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E47" s="3">
         <v>21400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>19900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19500</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>18700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>25400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>23800</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>24</v>
@@ -2580,8 +2685,8 @@
       <c r="M47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E48" s="3">
         <v>66600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>50400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>46600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>49700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>42600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>25600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>27700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>31600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>242700</v>
+      </c>
+      <c r="E49" s="3">
         <v>241800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>244200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>245300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>249000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>250600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>253400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>256500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>258200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>263000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>264100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>265200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>265900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>265100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>266500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E52" s="3">
         <v>19800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>20000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>20700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>42900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>43600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>42900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>39900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>37700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>41500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>38600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>559400</v>
+      </c>
+      <c r="E54" s="3">
         <v>557500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>576300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>587300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>568200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>526700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>514200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>510800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>506400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>505800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>516200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>508100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>512000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>508000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>530700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>554100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>31600</v>
+      </c>
+      <c r="E57" s="3">
         <v>27200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>25400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>33800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>29400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>22300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>28900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E58" s="3">
         <v>14200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>50400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>50100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>7600</v>
       </c>
       <c r="N58" s="3">
         <v>7600</v>
       </c>
       <c r="O58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P58" s="3">
         <v>7400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>94800</v>
+      </c>
+      <c r="E59" s="3">
         <v>104000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>101200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>108300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>105100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>101500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>95500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>108100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>107300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>101400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>107100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>106800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>112300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>108700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>145800</v>
+      </c>
+      <c r="E60" s="3">
         <v>145400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>196700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>191900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>146500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>138300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>134100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>136400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>137300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>138800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>142400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>142100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>146300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>145200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>141400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>144900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E61" s="3">
         <v>140500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>101700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>101600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>140600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>134800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>128800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>127500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>126400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>126000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>125600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>124100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>122800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>115200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>118300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>117200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>41400</v>
+      </c>
+      <c r="E62" s="3">
         <v>41300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>40100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>30700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>18700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>19700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>20300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>22200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>23500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>22300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>19500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>21400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>325000</v>
+      </c>
+      <c r="E66" s="3">
         <v>327200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>340000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>334900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>327200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>314700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>293600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>282600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>283400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>285000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>290300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>289700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>291400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>280400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>279300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>283400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2114700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>234500</v>
+      </c>
+      <c r="E76" s="3">
         <v>230300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>236300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>252400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>241100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>212100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>220600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>228300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>223000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>220700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>226000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>218300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>220600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>227600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>251400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>270600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44099</v>
+      </c>
+      <c r="E80" s="2">
         <v>44008</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43917</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43644</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43553</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43371</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43280</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43189</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43007</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-22000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>5600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-13700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-31500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-24000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-10400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E83" s="3">
         <v>3500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4900</v>
       </c>
       <c r="I83" s="3">
         <v>4900</v>
       </c>
       <c r="J83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K83" s="3">
         <v>5100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>5600</v>
       </c>
       <c r="N83" s="3">
         <v>5600</v>
       </c>
       <c r="O83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="P83" s="3">
         <v>6000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>11900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-11000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-8900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>4200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>9000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-3100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-11200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>7700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-11200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1400</v>
       </c>
       <c r="L94" s="3">
         <v>-1400</v>
       </c>
       <c r="M94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N94" s="3">
         <v>-1800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>3700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>3200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>6500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>8400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>600</v>
+      </c>
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="E102" s="3">
         <v>6000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-11900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>10900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44099</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44008</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43917</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43644</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43553</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43371</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43280</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43189</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43007</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>131500</v>
+      </c>
+      <c r="E8" s="3">
         <v>94900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>74000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>78400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>115700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>84900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>80100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>113700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>100600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>99200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>90100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>101000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>92000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>82300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>82900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>113100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>59100</v>
+      </c>
+      <c r="E9" s="3">
         <v>45700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>36200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>41800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>39900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>40800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>38000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>53400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>50500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>47400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>42200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>52500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>44400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>48200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>42000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>72400</v>
+      </c>
+      <c r="E10" s="3">
         <v>49200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>37800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>36600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>62400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>75800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>44100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>42100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>50100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>48500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>47600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>34100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>40900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>61100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E12" s="3">
         <v>20200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>19500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>21700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>23500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>24900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>24100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,64 +1064,70 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6900</v>
-      </c>
-      <c r="I14" s="3">
-        <v>400</v>
       </c>
       <c r="J14" s="3">
         <v>400</v>
       </c>
       <c r="K14" s="3">
+        <v>400</v>
+      </c>
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1113,10 +1135,10 @@
         <v>800</v>
       </c>
       <c r="E15" s="3">
+        <v>800</v>
+      </c>
+      <c r="F15" s="3">
         <v>700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>800</v>
@@ -1158,10 +1180,13 @@
         <v>800</v>
       </c>
       <c r="T15" s="3">
+        <v>800</v>
+      </c>
+      <c r="U15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E17" s="3">
         <v>96500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>84400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>96500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>115500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>98900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>92600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>88500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>106300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>104300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>98500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>99500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>109600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>106200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>109700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>104100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>129300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-18100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>6700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-8400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-9400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-27400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-21200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-16200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,146 +1345,153 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-13800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>3400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-25300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-18600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E22" s="3">
         <v>2800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>3000</v>
       </c>
       <c r="I22" s="3">
         <v>3000</v>
       </c>
       <c r="J22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K22" s="3">
         <v>2900</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>24</v>
@@ -1463,8 +1502,8 @@
       <c r="N22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1481,120 +1520,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-11100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-11600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-12600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-12000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-30900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-24300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-19100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>900</v>
       </c>
       <c r="M24" s="3">
         <v>900</v>
       </c>
       <c r="N24" s="3">
+        <v>900</v>
+      </c>
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-14700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-8600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-22000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>5600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-11800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-11300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-13700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-24000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-10400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-22000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>5600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-11800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-11300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-13700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-24000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-10400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-22000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>5600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-13700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-24000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-10400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-22000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>5600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-13700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-24000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-10400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44099</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44008</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43917</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43644</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43553</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43371</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43280</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43189</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43007</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E41" s="3">
         <v>70800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>77700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>71700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>93100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>66700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>58100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>69900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>54100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>52000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>57000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>50000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>55300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>55600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2421,263 +2510,278 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>6900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E43" s="3">
         <v>91600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>79100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>106000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>109800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>114900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>74700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>69800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>92900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>89100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>85400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>86500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>76500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>78100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>66700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>75800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>92700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E44" s="3">
         <v>36800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>32100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>34900</v>
-      </c>
-      <c r="G44" s="3">
-        <v>29000</v>
       </c>
       <c r="H44" s="3">
         <v>29000</v>
       </c>
       <c r="I44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="J44" s="3">
         <v>27700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>29300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>25600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>23300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>23000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>25100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>26000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>31800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>35100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>39900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>41200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28300</v>
+      </c>
+      <c r="E45" s="3">
         <v>14800</v>
-      </c>
-      <c r="E45" s="3">
-        <v>19000</v>
       </c>
       <c r="F45" s="3">
         <v>19000</v>
       </c>
       <c r="G45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="H45" s="3">
         <v>19500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>25000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>12000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E46" s="3">
         <v>214000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>207900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>231600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>251400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>236900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>185500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>181100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>196700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>187200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>179100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>181800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>171800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>176100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>172800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>192400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>216800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="3">
         <v>16900</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>21400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>19900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>19500</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>18700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>25400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>23800</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>24</v>
@@ -2688,8 +2792,8 @@
       <c r="N47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>70700</v>
+      </c>
+      <c r="E48" s="3">
         <v>66400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>66600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>63400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>50400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>46600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>49700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>42600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>27700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>244200</v>
+      </c>
+      <c r="E49" s="3">
         <v>242700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>241400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>244200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>245300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>249000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>250600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>253400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>256500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>258200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>263000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>264100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>265200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>265900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>265100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>266500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38600</v>
+      </c>
+      <c r="E52" s="3">
         <v>19300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>19800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>20000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>20700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>42900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>43600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>42900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>39900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>37700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>41500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>38600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>591500</v>
+      </c>
+      <c r="E54" s="3">
         <v>559400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>557500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>576300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>587300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>568200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>526700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>514200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>510800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>506400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>505800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>516200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>508100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>512000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>508000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>530700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>554100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E57" s="3">
         <v>31600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>27200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>40900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>25400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>33800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>29400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>29000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>22300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>28900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E58" s="3">
         <v>19400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>50400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>50100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1700</v>
-      </c>
-      <c r="N58" s="3">
-        <v>7600</v>
       </c>
       <c r="O58" s="3">
         <v>7600</v>
       </c>
       <c r="P58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Q58" s="3">
         <v>7400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E59" s="3">
         <v>94800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>104000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>101200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>108300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>105100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>101500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>95500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>108100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>107300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>101400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>107100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>106800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>112300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>108700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>147300</v>
+      </c>
+      <c r="E60" s="3">
         <v>145800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>145400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>196700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>191900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>146500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>138300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>134100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>136400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>137300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>138800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>142400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>142100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>146300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>145200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>141400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>144900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>139600</v>
+      </c>
+      <c r="E61" s="3">
         <v>137800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>140500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>101700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>101600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>140600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>134800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>128800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>127500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>126400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>126000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>125600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>124100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>122800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>115200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>118300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>117200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E62" s="3">
         <v>41400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>41300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>41600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>40100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>30700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>19700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>20300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>22200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>23500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>22300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>21400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>333200</v>
+      </c>
+      <c r="E66" s="3">
         <v>325000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>327200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>340000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>334900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>327200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>314700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>293600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>282600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>283400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>285000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>290300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>289700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>291400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>280400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>279300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>283400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2101200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>258300</v>
+      </c>
+      <c r="E76" s="3">
         <v>234500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>230300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>236300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>252400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>241100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>212100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>220600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>228300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>223000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>220700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>226000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>218300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>220600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>227600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>251400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>270600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44099</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44008</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43917</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43644</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43553</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43371</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43280</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43189</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43007</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-22000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>5600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-13700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-24000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-10400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E83" s="3">
         <v>3900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4900</v>
       </c>
       <c r="J83" s="3">
         <v>4900</v>
       </c>
       <c r="K83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="L83" s="3">
         <v>5100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5400</v>
-      </c>
-      <c r="N83" s="3">
-        <v>5600</v>
       </c>
       <c r="O83" s="3">
         <v>5600</v>
       </c>
       <c r="P83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q83" s="3">
         <v>6000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>7700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>11900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-11000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-8900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>9000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-2000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>7700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-5400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-1400</v>
       </c>
       <c r="M94" s="3">
         <v>-1400</v>
       </c>
       <c r="N94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>3700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>8400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,107 +5620,113 @@
         <v>600</v>
       </c>
       <c r="E101" s="3">
+        <v>600</v>
+      </c>
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-6900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-21300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>3900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-2300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>10900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,294 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44099</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44008</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43917</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43644</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43553</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43371</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43280</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43189</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43007</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>113400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>111600</v>
+      </c>
+      <c r="F8" s="3">
         <v>131500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>94900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>74000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>78400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>122200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>115700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>84900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>80100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>113700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>100600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>99200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>90100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>101000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>92000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>82300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>82900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>113100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>56500</v>
+      </c>
+      <c r="F9" s="3">
         <v>59100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>45700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>36200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>41800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>59800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>39900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>40800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>38000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>53400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>50500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>47400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>42200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>52500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>44400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>48200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>42000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>52000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>55100</v>
+      </c>
+      <c r="F10" s="3">
         <v>72400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>49200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>37800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>36600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>62400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>75800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>44100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>42100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>60300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>50100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>51800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>47900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>48500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>47600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>34100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>40900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>61100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +974,75 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>23500</v>
+      </c>
+      <c r="F12" s="3">
         <v>20700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>20200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>19500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>22100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>21700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>20200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>21300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>21400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>21900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>22300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>21500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>23500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>22800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>21300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>27100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>24900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>24100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,84 +1100,96 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>2600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>6900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>1700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>1100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>13500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
         <v>800</v>
-      </c>
-      <c r="E15" s="3">
-        <v>800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>700</v>
       </c>
       <c r="G15" s="3">
         <v>800</v>
       </c>
       <c r="H15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I15" s="3">
         <v>800</v>
@@ -1183,10 +1228,16 @@
         <v>800</v>
       </c>
       <c r="U15" s="3">
+        <v>800</v>
+      </c>
+      <c r="V15" s="3">
+        <v>800</v>
+      </c>
+      <c r="W15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1256,140 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>111300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>115400</v>
+      </c>
+      <c r="F17" s="3">
         <v>115300</v>
-      </c>
-      <c r="E17" s="3">
-        <v>96500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>84400</v>
       </c>
       <c r="G17" s="3">
         <v>96500</v>
       </c>
       <c r="H17" s="3">
+        <v>84400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>96500</v>
+      </c>
+      <c r="J17" s="3">
         <v>115500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>98900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>92600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>88500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>106300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>104300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>98500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>99500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>109600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>106200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>109700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>104100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>129300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F18" s="3">
         <v>16200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-10400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-18100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>6700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>16800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-7700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-8400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>7400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-9400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-8600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-14200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-27400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-21200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-16200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,8 +1411,10 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1355,149 +1422,161 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-2800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-2700</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-3400</v>
       </c>
       <c r="Q20" s="3">
         <v>-3300</v>
       </c>
       <c r="R20" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="T20" s="3">
         <v>-3500</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-2800</v>
       </c>
       <c r="U20" s="3">
         <v>-3100</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-3100</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
         <v>20000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-7300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-13800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>11600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>20100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>9700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>3400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-7100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-11500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-25300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-18600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-11300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F22" s="3">
         <v>2700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>3100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>24</v>
@@ -1505,11 +1584,11 @@
       <c r="O22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1523,126 +1602,144 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F23" s="3">
         <v>13400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-4600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-13800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-21200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>3900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>12300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-11100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-6900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-12600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-12000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-17500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-30900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-24300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-19100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E24" s="3">
+        <v>700</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-14700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-1900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
-      </c>
-      <c r="S24" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>-8600</v>
       </c>
       <c r="U24" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="W24" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,126 +1797,144 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F26" s="3">
         <v>13500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-15400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-22000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>11700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-11800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-11300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-13700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>2700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-15600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-31500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-24000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-10400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F27" s="3">
         <v>13500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-5400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-15400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-22000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>11700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-11800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-11300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-13700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>2700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-15600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-31500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-24000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-10400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,31 +1992,37 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1918,14 +2039,14 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
-        <v>-14500</v>
+      <c r="P29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>-14500</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -1936,8 +2057,14 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2122,14 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2187,14 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,117 +2202,129 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>2800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>2700</v>
-      </c>
-      <c r="O32" s="3">
-        <v>3300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>3400</v>
       </c>
       <c r="Q32" s="3">
         <v>3300</v>
       </c>
       <c r="R32" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T32" s="3">
         <v>3500</v>
-      </c>
-      <c r="S32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>2800</v>
       </c>
       <c r="U32" s="3">
         <v>3100</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W32" s="3">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F33" s="3">
         <v>13500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-5400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-15400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-22000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>11700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-11300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-13700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-15600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-31500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-24000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-10400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2382,149 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F35" s="3">
         <v>13500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-5400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-15400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-22000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>11700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-11300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-13700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-15600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-31500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-24000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-10400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44099</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44008</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43917</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43644</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43553</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43371</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43280</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43189</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43007</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2546,10 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2571,75 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>115200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100800</v>
+      </c>
+      <c r="F41" s="3">
         <v>98600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>70800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>77700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>71700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>93100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>66700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>58100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>69900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>66000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>61700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>54100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>52000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>57000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>50000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>52900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>55300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>55600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2513,281 +2692,311 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>6900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>114500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>96800</v>
+      </c>
+      <c r="F43" s="3">
         <v>76000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>91600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>79100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>106000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>109800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>114900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>74700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>69800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>92900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>89100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>85400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>86500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>76500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>78100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>66700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>75800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>92700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>43000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>35500</v>
+      </c>
+      <c r="F44" s="3">
         <v>35000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>36800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>32100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>34900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>29000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>29000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>27700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>29300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>25600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>23300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>23000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>25100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>26000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>31800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>35100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>39900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>41200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E45" s="3">
+        <v>27600</v>
+      </c>
+      <c r="F45" s="3">
         <v>28300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>19000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>19000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>19500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>26400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>25000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>12000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>12100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>13100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>16600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>18200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>12300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>16200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>18000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>21400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>20400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>301100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>260700</v>
+      </c>
+      <c r="F46" s="3">
         <v>238000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>214000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>207900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>231600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>251400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>236900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>185500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>181100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>196700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>187200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>179100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>181800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>171800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>176100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>172800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>192400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>216800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="3">
         <v>16900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>21400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>19900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>19500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>18700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>25400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>23800</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>24</v>
@@ -2795,11 +3004,11 @@
       <c r="O47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -2813,126 +3022,144 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>74500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>68900</v>
+      </c>
+      <c r="F48" s="3">
         <v>70700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>66400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>66600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>63400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>50400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>46600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>49700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>42600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>22300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>24200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>25600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>27700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>29300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>30700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>31600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>31700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>32200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>242200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>241800</v>
+      </c>
+      <c r="F49" s="3">
         <v>244200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>242700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>241800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>241400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>244200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>245300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>249000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>250600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>253400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>256500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>258200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>263000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>264100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>265200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>265900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>265100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>266500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3217,14 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3282,79 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>33300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>38300</v>
+      </c>
+      <c r="F52" s="3">
         <v>38600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>19300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>19800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>20000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>21800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>20700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>17100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>16200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>38400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>38600</v>
-      </c>
-      <c r="N52" s="3">
-        <v>42900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>43600</v>
       </c>
       <c r="P52" s="3">
         <v>42900</v>
       </c>
       <c r="Q52" s="3">
+        <v>43600</v>
+      </c>
+      <c r="R52" s="3">
+        <v>42900</v>
+      </c>
+      <c r="S52" s="3">
         <v>39900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>37700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>41500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>38600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3412,79 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>651200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>609700</v>
+      </c>
+      <c r="F54" s="3">
         <v>591500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>559400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>557500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>576300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>587300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>568200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>526700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>514200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>510800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>506400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>505800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>516200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>508100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>512000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>508000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>530700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>554100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3506,10 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3531,400 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F57" s="3">
         <v>23500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>31600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>27200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>45200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>40900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>31200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>31800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>25400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>33800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>29400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>29000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>27600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>33100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>31800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>31300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>22300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>28900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>41500</v>
+      </c>
+      <c r="F58" s="3">
         <v>11800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>19400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>14200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>50400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>50100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>7600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>7400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>7100</v>
-      </c>
-      <c r="S58" s="3">
-        <v>6800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>7300</v>
       </c>
       <c r="U58" s="3">
         <v>6800</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="W58" s="3">
+        <v>6800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>114900</v>
+      </c>
+      <c r="F59" s="3">
         <v>112000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>94800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>104000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>101200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>100900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>108300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>105100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>101500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>95500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>100200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>108100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>107300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>101400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>107100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>106800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>112300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>108700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>186400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>192600</v>
+      </c>
+      <c r="F60" s="3">
         <v>147300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>145800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>145400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>196700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>191900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>146500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>138300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>134100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>136400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>137300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>138800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>142400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>142100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>146300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>145200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>141400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>144900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>146500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>111900</v>
+      </c>
+      <c r="F61" s="3">
         <v>139600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>137800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>140500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>101700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>101600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>140600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>134800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>128800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>127500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>126400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>126000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>125600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>124100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>122800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>115200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>118300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>117200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F62" s="3">
         <v>46300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>41400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>41300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>41600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>41400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>40100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>41600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>30700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>18700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>19700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>20300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>22200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>23500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>22300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>20000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>19500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>21400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3982,14 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +4047,14 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +4112,79 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>383900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>349900</v>
+      </c>
+      <c r="F66" s="3">
         <v>333200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>325000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>327200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>340000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>334900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>327200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>314700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>293600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>282600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>283400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>285000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>290300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>289700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>291400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>280400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>279300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>283400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4206,10 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4267,14 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4332,14 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4397,14 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4462,79 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2109300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-2107300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2101200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4592,14 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4657,14 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4722,79 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>267300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>259800</v>
+      </c>
+      <c r="F76" s="3">
         <v>258300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>234500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>230300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>236300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>252400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>241100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>212100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>220600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>228300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>223000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>220700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>226000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>218300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>220600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>227600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>251400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>270600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4852,149 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44379</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44288</v>
+      </c>
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44099</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44008</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43917</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43644</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43553</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43371</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43280</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43189</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43007</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F81" s="3">
         <v>13500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-5400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-15400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-22000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>11700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-11300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-13700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-15600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-31500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-24000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-10400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +5016,75 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F83" s="3">
         <v>3800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>3900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>3500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>4500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I83" s="3">
-        <v>4800</v>
       </c>
       <c r="J83" s="3">
         <v>4900</v>
       </c>
       <c r="K83" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L83" s="3">
         <v>4900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="N83" s="3">
         <v>5100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>5200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>5400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>5600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>5600</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>6000</v>
       </c>
       <c r="R83" s="3">
         <v>5600</v>
       </c>
       <c r="S83" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U83" s="3">
         <v>5700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>7700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +5142,14 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5207,14 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5272,14 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5337,14 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5402,79 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F89" s="3">
         <v>41600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>11900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>30200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-8900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>6600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>2400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>9900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-6600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>9000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-8600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>5700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-3100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>13100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5496,75 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-9500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-11200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-2000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-2300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-3100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-2700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-6400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>7700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5622,14 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5687,79 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-5400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-9500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-11200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-2300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-3100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-2700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>3700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-2100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5781,10 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5842,14 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5907,14 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5972,14 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +6037,205 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-8300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>3200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>1400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>6500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-5800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>8400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-5900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-1200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F102" s="3">
         <v>27800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-21300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>26400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>8600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-11900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>7500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>6800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-2800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-2300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>10900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,294 +665,306 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E7" s="2">
         <v>44379</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44288</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44099</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44008</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43917</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43735</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43644</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43553</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43371</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43280</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43189</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43007</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>126300</v>
+      </c>
+      <c r="E8" s="3">
         <v>113400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>111600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>131500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>94900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>74000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>78400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>122200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>115700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>84900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>80100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>113700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>100600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>99200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>90100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>101000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>92000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>82300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>82900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>113100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>60200</v>
+      </c>
+      <c r="E9" s="3">
         <v>52600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>56500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>59100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>45700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>36200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>41800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>39900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>38000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>50500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>47400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>42200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>52500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>44400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>48200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>42000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>52000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>66100</v>
+      </c>
+      <c r="E10" s="3">
         <v>60800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>72400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>49200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>37800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>36600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>62400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>44100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>42100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>50100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>47900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>48500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>47600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>34100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>40900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>61100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,73 +988,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E12" s="3">
         <v>24800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>23500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>20700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>19500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>22100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>23500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>27100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>24900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>24100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1106,73 +1122,79 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>6900</v>
-      </c>
-      <c r="L14" s="3">
-        <v>400</v>
       </c>
       <c r="M14" s="3">
         <v>400</v>
       </c>
       <c r="N14" s="3">
+        <v>400</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>13500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1180,19 +1202,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>800</v>
       </c>
       <c r="H15" s="3">
+        <v>800</v>
+      </c>
+      <c r="I15" s="3">
         <v>700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
@@ -1234,10 +1256,13 @@
         <v>800</v>
       </c>
       <c r="W15" s="3">
+        <v>800</v>
+      </c>
+      <c r="X15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,138 +1283,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>121000</v>
+      </c>
+      <c r="E17" s="3">
         <v>111300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>115400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>115300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>96500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>84400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>96500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>115500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>98900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>92600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>88500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>106300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>104300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>98500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>99500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>109600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>106200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>109700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>104100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>129300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-10400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-9400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-14200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-27400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-21200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-16200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1413,173 +1445,180 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E21" s="3">
         <v>5100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>20000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-13800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>11600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>3400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-6400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-11500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-25300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-18600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E22" s="3">
         <v>2600</v>
       </c>
       <c r="F22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3000</v>
       </c>
       <c r="L22" s="3">
         <v>3000</v>
       </c>
       <c r="M22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N22" s="3">
         <v>2900</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>24</v>
@@ -1590,8 +1629,8 @@
       <c r="Q22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1608,138 +1647,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>13400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-21200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-6900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-12600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-17500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-30900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-24300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-19100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>900</v>
+      </c>
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-1700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>900</v>
       </c>
       <c r="P24" s="3">
         <v>900</v>
       </c>
       <c r="Q24" s="3">
+        <v>900</v>
+      </c>
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-14700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-8600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1803,138 +1851,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>13500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>11700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-13700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-31500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-24000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-10400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>13500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-13700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>2700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-31500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-24000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-10400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1998,8 +2055,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2024,8 +2084,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -2045,11 +2105,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2063,8 +2123,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2191,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,138 +2259,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>13500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-13700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-31500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-24000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-10400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,143 +2463,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>13500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-13700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-31500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-24000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-10400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E38" s="2">
         <v>44379</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44288</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44099</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44008</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43917</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43735</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43644</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43553</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43371</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43280</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43189</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43007</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2632,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,73 +2658,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>128400</v>
+      </c>
+      <c r="E41" s="3">
         <v>115200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>70800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>77700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>71700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>93100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>66700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>58100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>69900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>66000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>61700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>54100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>52000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>57000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>50000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>52900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>55300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>55600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2698,273 +2787,288 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
         <v>6900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E43" s="3">
         <v>114500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>96800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>76000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>91600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>79100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>106000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>109800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>114900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>74700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>69800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>92900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>89100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>85400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>86500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>76500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>78100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>66700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>75800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>92700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E44" s="3">
         <v>43000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>35500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>36800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>32100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>34900</v>
-      </c>
-      <c r="J44" s="3">
-        <v>29000</v>
       </c>
       <c r="K44" s="3">
         <v>29000</v>
       </c>
       <c r="L44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="M44" s="3">
         <v>27700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>29300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>25600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>23300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>23000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>25100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>26000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>31800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>35100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>39900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>41200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E45" s="3">
         <v>28400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>19000</v>
       </c>
       <c r="I45" s="3">
         <v>19000</v>
       </c>
       <c r="J45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K45" s="3">
         <v>19500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>25000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>16600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>20400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>291200</v>
+      </c>
+      <c r="E46" s="3">
         <v>301100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>260700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>238000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>214000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>207900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>231600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>251400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>236900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>185500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>181100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>196700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>187200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>179100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>181800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>171800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>176100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>172800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>192400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>216800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2977,29 +3081,29 @@
       <c r="F47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="3">
         <v>16900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>21400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>19900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>18700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>25400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>23800</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>24</v>
@@ -3010,8 +3114,8 @@
       <c r="Q47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3028,138 +3132,147 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E48" s="3">
         <v>74500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>70700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>66400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>63400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>50400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>46600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>49700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>42600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>24200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>25600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>27700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>31600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>32200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>241300</v>
+      </c>
+      <c r="E49" s="3">
         <v>242200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>244200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>242700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>241800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>241400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>244200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>245300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>249000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>250600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>253400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>256500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>258200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>263000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>264100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>265200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>265900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>265100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>266500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3336,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,73 +3404,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38300</v>
+      </c>
+      <c r="E52" s="3">
         <v>33300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>19300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>20000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>21800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>38400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>38600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>42900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>43600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>42900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>39900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>37700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>41500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>38600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3540,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>643900</v>
+      </c>
+      <c r="E54" s="3">
         <v>651200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>609700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>591500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>559400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>557500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>576300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>587300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>568200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>526700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>514200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>510800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>506400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>505800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>516200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>508100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>512000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>508000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>530700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>554100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3636,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,398 +3662,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E57" s="3">
         <v>37600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>23500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>31600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>27200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>40900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>25400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>33800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>29400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>27600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>22300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>28900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E58" s="3">
         <v>5700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>11800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>50400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>50100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>7600</v>
       </c>
       <c r="R58" s="3">
         <v>7600</v>
       </c>
       <c r="S58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="T58" s="3">
         <v>7400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>129800</v>
+      </c>
+      <c r="E59" s="3">
         <v>143100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>114900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>112000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>94800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>104000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>101200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>108300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>105100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>101500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>95500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>108100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>107300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>101400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>107100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>106800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>112300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>108700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>203700</v>
+      </c>
+      <c r="E60" s="3">
         <v>186400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>192600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>147300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>145800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>145400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>196700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>191900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>146500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>138300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>134100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>136400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>137300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>138800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>142400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>142100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>146300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>145200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>141400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>144900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>112200</v>
+      </c>
+      <c r="E61" s="3">
         <v>146500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>111900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>139600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>137800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>140500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>101700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>101600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>140600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>134800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>128800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>127500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>126400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>126000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>125600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>124100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>122800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>115200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>118300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>117200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E62" s="3">
         <v>51000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>45500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>46300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>41400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>40100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>20300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>22200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>23500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>20000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>19500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>21400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4136,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4053,8 +4204,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4272,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>370200</v>
+      </c>
+      <c r="E66" s="3">
         <v>383900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>349900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>333200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>325000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>327200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>340000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>334900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>327200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>314700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>293600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>282600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>283400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>285000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>290300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>289700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>291400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>280400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>279300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>283400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4368,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4434,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4502,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4403,8 +4570,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,73 +4638,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2107800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2107300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2101200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4774,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4842,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4910,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>273700</v>
+      </c>
+      <c r="E76" s="3">
         <v>267300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>259800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>258300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>234500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>230300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>236300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>252400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>241100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>212100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>220600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>228300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>223000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>220700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>226000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>218300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>220600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>227600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>251400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>270600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,143 +5046,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44470</v>
+      </c>
+      <c r="E80" s="2">
         <v>44379</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44288</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44099</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44008</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43917</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43735</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43644</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43553</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43371</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43280</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43189</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43007</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>13500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-13700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-31500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-24000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-10400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,73 +5215,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>4900</v>
       </c>
       <c r="M83" s="3">
         <v>4900</v>
       </c>
       <c r="N83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="O83" s="3">
         <v>5100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>5600</v>
       </c>
       <c r="R83" s="3">
         <v>5600</v>
       </c>
       <c r="S83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T83" s="3">
         <v>6000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5349,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5417,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5485,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5553,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,73 +5621,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E89" s="3">
         <v>16800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>41600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>11900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-11000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-8900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>4200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>2400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>9900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-3100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,73 +5717,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-9500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-11200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-2000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-3100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>7700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5851,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,73 +5919,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-9500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-2000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1400</v>
       </c>
       <c r="P94" s="3">
         <v>-1400</v>
       </c>
       <c r="Q94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>3700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6015,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6081,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6149,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6217,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,199 +6285,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>4700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-8300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>6500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>8400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-600</v>
-      </c>
-      <c r="F101" s="3">
-        <v>600</v>
       </c>
       <c r="G101" s="3">
         <v>600</v>
       </c>
       <c r="H101" s="3">
+        <v>600</v>
+      </c>
+      <c r="I101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>600</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E102" s="3">
         <v>14400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>27800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>4100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>7500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>6800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-2800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>10900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,306 +665,319 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44470</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44379</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44288</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44099</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43917</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43644</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43553</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43371</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43280</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43189</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43007</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>155800</v>
+      </c>
+      <c r="E8" s="3">
         <v>126300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>113400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>111600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>131500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>94900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>74000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>78400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>122200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>115700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>84900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>80100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>113700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>100600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>99200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>90100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>101000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>92000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>82300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>82900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>113100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E9" s="3">
         <v>60200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>52600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>56500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>59100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>45700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>36200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>41800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>38000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>53400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>50500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>47400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>42200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>52500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>44400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>48200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>42000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>52000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E10" s="3">
         <v>66100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>60800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>55100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>72400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>49200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>37800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>36600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>62400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>44100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>42100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>60300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>50100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>51800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>47900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>48500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>47600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>34100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>40900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>61100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,76 +1002,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E12" s="3">
         <v>26600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>24800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>23500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>20700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>19500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>22100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>23500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>27100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>24900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>24100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,76 +1142,82 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>6900</v>
-      </c>
-      <c r="M14" s="3">
-        <v>400</v>
       </c>
       <c r="N14" s="3">
         <v>400</v>
       </c>
       <c r="O14" s="3">
+        <v>400</v>
+      </c>
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>13500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
       </c>
       <c r="I15" s="3">
+        <v>800</v>
+      </c>
+      <c r="J15" s="3">
         <v>700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>800</v>
@@ -1259,10 +1282,13 @@
         <v>800</v>
       </c>
       <c r="X15" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1284,144 +1310,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>140700</v>
+      </c>
+      <c r="E17" s="3">
         <v>121000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>111300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>115400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>115300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>96500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>84400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>96500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>115500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>98900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>92600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>88500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>106300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>104300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>98500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>99500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>109600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>106200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>109700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>104100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>129300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E18" s="3">
         <v>5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-18100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-7700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-9400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-14200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-27400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-21200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-16200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1446,144 +1479,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E21" s="3">
         <v>8400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>20000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-13800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>3400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-6400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-11500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-25300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-18600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1591,37 +1631,37 @@
         <v>2700</v>
       </c>
       <c r="E22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F22" s="3">
         <v>2600</v>
       </c>
       <c r="G22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3000</v>
       </c>
       <c r="M22" s="3">
         <v>3000</v>
       </c>
       <c r="N22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O22" s="3">
         <v>2900</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>24</v>
@@ -1632,8 +1672,8 @@
       <c r="R22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1650,144 +1690,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E23" s="3">
         <v>2500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>13400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-13800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-21200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-12600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-17500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-30900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-24300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-19100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E24" s="3">
         <v>900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1200</v>
-      </c>
-      <c r="P24" s="3">
-        <v>900</v>
       </c>
       <c r="Q24" s="3">
         <v>900</v>
       </c>
       <c r="R24" s="3">
+        <v>900</v>
+      </c>
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-14700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-8600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1854,144 +1903,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>13500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-22000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>11700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-11800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-13700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-31500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-24000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-10400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>13500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-22000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-11800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-13700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>2700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-31500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-24000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-10400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2058,8 +2116,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2087,8 +2148,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2108,11 +2169,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2126,8 +2187,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2194,8 +2258,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2262,144 +2329,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>13500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-22000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-11800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-13700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-31500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-24000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-10400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2466,149 +2542,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>13500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-22000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-11800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-13700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-31500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-24000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-10400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44470</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44379</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44288</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44099</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43917</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43644</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43553</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43371</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43280</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43189</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43007</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2633,8 +2718,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2659,76 +2745,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>133400</v>
+      </c>
+      <c r="E41" s="3">
         <v>128400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>115200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>98600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>70800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>77700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>71700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>93100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>66700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>58100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>69900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>66000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>61700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>54100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>52000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>57000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>50000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>52900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>55300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>55600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2790,285 +2880,300 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
         <v>6900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>96600</v>
+      </c>
+      <c r="E43" s="3">
         <v>87100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>114500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>96800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>76000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>91600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>79100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>106000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>109800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>114900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>74700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>69800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>92900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>89100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>85400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>86500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>76500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>78100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>66700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>75800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>92700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>71200</v>
+      </c>
+      <c r="E44" s="3">
         <v>51900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>43000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>35500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>36800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>32100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>34900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>29000</v>
       </c>
       <c r="L44" s="3">
         <v>29000</v>
       </c>
       <c r="M44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="N44" s="3">
         <v>27700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>29300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>25600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>23300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>23000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>25100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>26000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>31800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>35100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>39900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>41200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E45" s="3">
         <v>23800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>28400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14800</v>
-      </c>
-      <c r="I45" s="3">
-        <v>19000</v>
       </c>
       <c r="J45" s="3">
         <v>19000</v>
       </c>
       <c r="K45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="L45" s="3">
         <v>19500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>25000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>13100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>16600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>20400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>323100</v>
+      </c>
+      <c r="E46" s="3">
         <v>291200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>301100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>260700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>238000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>214000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>207900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>231600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>251400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>236900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>185500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>181100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>196700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>187200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>179100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>181800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>171800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>176100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>172800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>192400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>216800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3084,29 +3189,29 @@
       <c r="G47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="3">
         <v>16900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>21400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>19900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>18700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>25400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>23800</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>24</v>
@@ -3117,8 +3222,8 @@
       <c r="R47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S47" s="3">
-        <v>0</v>
+      <c r="S47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T47" s="3">
         <v>0</v>
@@ -3135,144 +3240,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>73700</v>
+      </c>
+      <c r="E48" s="3">
         <v>73100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>74500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>68900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>70700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>66400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>63400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>50400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>46600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>49700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>42600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>22300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>24200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>25600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>27700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>31600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>240200</v>
+      </c>
+      <c r="E49" s="3">
         <v>241300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>242200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>241800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>244200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>242700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>241800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>241400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>244200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>245300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>249000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>250600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>253400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>256500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>258200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>263000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>264100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>265200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>265900</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>265100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>266500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3339,8 +3453,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3407,76 +3524,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E52" s="3">
         <v>38300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>33300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>38600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>19300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>38400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>42900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>43600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>42900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>39900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>37700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>41500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>38600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3543,76 +3666,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>693700</v>
+      </c>
+      <c r="E54" s="3">
         <v>643900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>651200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>609700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>591500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>559400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>557500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>576300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>587300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>568200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>526700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>514200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>510800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>506400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>505800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>516200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>508100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>512000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>508000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>530700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>554100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3637,8 +3766,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3663,416 +3793,435 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E57" s="3">
         <v>32400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>37600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>23500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>31600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>27200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>40900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>25400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>33800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>29400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>27600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>31300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>22300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>28900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>41800</v>
+      </c>
+      <c r="E58" s="3">
         <v>41600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>19400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>50400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1700</v>
-      </c>
-      <c r="R58" s="3">
-        <v>7600</v>
       </c>
       <c r="S58" s="3">
         <v>7600</v>
       </c>
       <c r="T58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="U58" s="3">
         <v>7400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>6800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E59" s="3">
         <v>129800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>143100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>114900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>112000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>94800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>104000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>101200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>100900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>108300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>105100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>101500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>95500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>108100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>107300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>101400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>107100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>106800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>112300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>108700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>224500</v>
+      </c>
+      <c r="E60" s="3">
         <v>203700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>186400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>192600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>147300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>145800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>145400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>196700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>191900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>146500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>138300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>134100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>136400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>137300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>138800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>142400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>142100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>146300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>145200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>141400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>144900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E61" s="3">
         <v>112200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>146500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>111900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>139600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>137800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>140500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>101700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>101600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>140600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>134800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>128800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>127500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>126400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>126000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>125600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>124100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>122800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>115200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>118300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>117200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E62" s="3">
         <v>54200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>45500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>46300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>41400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>40100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>30700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>18700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>19700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>20300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>22200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>23500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>20000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>19500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>21400</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4139,8 +4288,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4207,8 +4359,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4275,76 +4430,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>397800</v>
+      </c>
+      <c r="E66" s="3">
         <v>370200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>383900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>349900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>333200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>325000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>327200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>340000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>334900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>327200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>314700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>293600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>282600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>283400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>285000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>290300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>289700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>291400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>280400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>279300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>283400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4369,8 +4530,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4437,8 +4599,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4505,8 +4670,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4573,8 +4741,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4641,76 +4812,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2088000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2107800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2107300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2101200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4777,8 +4954,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4845,8 +5025,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4913,76 +5096,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>295900</v>
+      </c>
+      <c r="E76" s="3">
         <v>273700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>267300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>259800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>258300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>234500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>230300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>236300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>252400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>241100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>212100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>220600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>228300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>223000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>220700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>226000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>218300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>220600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>227600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>251400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>270600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5049,149 +5238,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44470</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44379</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44288</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44099</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43917</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43644</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43553</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43371</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43280</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43189</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43007</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>13500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-22000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-11800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-13700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-31500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-24000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-10400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5216,8 +5414,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5225,67 +5424,70 @@
         <v>3200</v>
       </c>
       <c r="E83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>4900</v>
       </c>
       <c r="N83" s="3">
         <v>4900</v>
       </c>
       <c r="O83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="P83" s="3">
         <v>5100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>5200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5400</v>
-      </c>
-      <c r="R83" s="3">
-        <v>5600</v>
       </c>
       <c r="S83" s="3">
         <v>5600</v>
       </c>
       <c r="T83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U83" s="3">
         <v>6000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5352,8 +5554,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5420,8 +5625,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5488,8 +5696,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5556,8 +5767,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5624,76 +5838,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E89" s="3">
         <v>15200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>41600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>11900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-8900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>4200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>9900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5718,76 +5938,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-9500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-2000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>7700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5854,8 +6078,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5922,76 +6149,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-2000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q94" s="3">
         <v>-1400</v>
       </c>
       <c r="R94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>3700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6016,8 +6249,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6084,8 +6318,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6152,8 +6389,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6220,8 +6460,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6288,208 +6531,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>4700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-8300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>6500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-5800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>8400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-1200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-600</v>
-      </c>
-      <c r="G101" s="3">
-        <v>600</v>
       </c>
       <c r="H101" s="3">
         <v>600</v>
       </c>
       <c r="I101" s="3">
+        <v>600</v>
+      </c>
+      <c r="J101" s="3">
         <v>400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>600</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E102" s="3">
         <v>13300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>27800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>8600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>4100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>7500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>6800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-2800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>10900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,319 +665,332 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44470</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44379</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44288</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44099</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44008</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43917</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43735</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43644</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43553</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43371</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43280</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43189</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43007</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>147400</v>
+      </c>
+      <c r="E8" s="3">
         <v>155800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>126300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>113400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>111600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>131500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>94900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>74000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>78400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>122200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>115700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>84900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>80100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>113700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>100600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>99200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>90100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>101000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>92000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>82300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>82900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>113100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>78300</v>
+      </c>
+      <c r="E9" s="3">
         <v>77600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>60200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>52600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>56500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>59100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>45700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>36200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>41800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>59800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>38000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>53400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>50500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>47400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>42200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>52500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>44400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>48200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>42000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>52000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>69100</v>
+      </c>
+      <c r="E10" s="3">
         <v>78200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>66100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>60800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>55100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>72400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>49200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>37800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>36600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>75800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>44100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>42100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>50100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>51800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>47900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>48500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>47600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>34100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>40900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>61100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,79 +1016,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E12" s="3">
         <v>27400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>26600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>24800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>23500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>20700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>19500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>22100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>23500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>22800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>27100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>24900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>24100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1145,79 +1162,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>6900</v>
-      </c>
-      <c r="N14" s="3">
-        <v>400</v>
       </c>
       <c r="O14" s="3">
         <v>400</v>
       </c>
       <c r="P14" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>700</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>13500</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1231,19 +1254,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
         <v>500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>800</v>
       </c>
       <c r="J15" s="3">
+        <v>800</v>
+      </c>
+      <c r="K15" s="3">
         <v>700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>800</v>
       </c>
       <c r="L15" s="3">
         <v>800</v>
@@ -1285,10 +1308,13 @@
         <v>800</v>
       </c>
       <c r="Y15" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1311,150 +1337,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>144900</v>
+      </c>
+      <c r="E17" s="3">
         <v>140700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>121000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>111300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>115400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>115300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>96500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>84400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>96500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>98900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>92600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>88500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>106300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>104300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>98500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>99500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>109600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>106200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>109700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>104100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>129300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>15100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>5300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-10400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-18100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-9400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-14200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-27400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-21200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-16200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1480,191 +1513,198 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E21" s="3">
         <v>18300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>8400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>20000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-13800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-3200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>3400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-6400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-11500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-25300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-18600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
         <v>2700</v>
       </c>
       <c r="F22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G22" s="3">
         <v>2600</v>
       </c>
       <c r="H22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3000</v>
       </c>
       <c r="N22" s="3">
         <v>3000</v>
       </c>
       <c r="O22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P22" s="3">
         <v>2900</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>24</v>
@@ -1675,8 +1715,8 @@
       <c r="S22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1693,150 +1733,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>12500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-13800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-21200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-12600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-17500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-30900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-24300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-19100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-7400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>900</v>
       </c>
       <c r="R24" s="3">
         <v>900</v>
       </c>
       <c r="S24" s="3">
+        <v>900</v>
+      </c>
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-14700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1906,150 +1955,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>19900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>13500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-22000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>11700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-11800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-13700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-31500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-24000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>19900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>13500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-22000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-11800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-13700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>2700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-31500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-24000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2119,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2151,8 +2212,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -2172,11 +2233,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>24</v>
@@ -2190,8 +2251,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2261,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2332,150 +2399,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>19900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-22000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>11700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-11800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-13700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-31500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-24000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2545,155 +2621,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>19900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-22000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>11700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-11800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-13700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-31500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-24000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44470</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44379</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44288</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44099</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44008</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43917</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43735</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43644</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43553</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43371</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43280</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43189</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43007</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2719,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2746,79 +2832,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100700</v>
+      </c>
+      <c r="E41" s="3">
         <v>133400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>128400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>115200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>98600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>70800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>77700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>71700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>93100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>66700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>58100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>69900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>66000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>61700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>54100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>52000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>57000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>50000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>52900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>55300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>55600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2883,297 +2973,312 @@
         <v>0</v>
       </c>
       <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>6900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E43" s="3">
         <v>96600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>87100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>114500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>96800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>76000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>91600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>79100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>106000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>109800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>114900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>74700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>69800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>92900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>89100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>85400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>86500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>76500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>78100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>66700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>75800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>92700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>81800</v>
+      </c>
+      <c r="E44" s="3">
         <v>71200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>51900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>43000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>35500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>35000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>36800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>32100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>34900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>29000</v>
       </c>
       <c r="M44" s="3">
         <v>29000</v>
       </c>
       <c r="N44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="O44" s="3">
         <v>27700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>29300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>25600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>23300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>23000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>25100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>26000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>31800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>35100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>39900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>41200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E45" s="3">
         <v>21900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>28400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14800</v>
-      </c>
-      <c r="J45" s="3">
-        <v>19000</v>
       </c>
       <c r="K45" s="3">
         <v>19000</v>
       </c>
       <c r="L45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="M45" s="3">
         <v>19500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>25000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>13100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>16600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>18000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>21400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>20400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>325400</v>
+      </c>
+      <c r="E46" s="3">
         <v>323100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>291200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>301100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>260700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>238000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>214000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>207900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>231600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>251400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>236900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>185500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>181100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>196700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>187200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>179100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>181800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>171800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>176100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>172800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>192400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>216800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3192,29 +3297,29 @@
       <c r="H47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="3">
         <v>16900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>21400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>19900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>18700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>25400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>23800</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>24</v>
@@ -3225,8 +3330,8 @@
       <c r="S47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T47" s="3">
-        <v>0</v>
+      <c r="T47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U47" s="3">
         <v>0</v>
@@ -3243,150 +3348,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>72100</v>
+      </c>
+      <c r="E48" s="3">
         <v>73700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>74500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>68900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>70700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>66400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>66600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>63400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>50400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>46600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>49700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>42600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>22300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>25600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>27700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>29300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>30700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>31600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>32200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>239600</v>
+      </c>
+      <c r="E49" s="3">
         <v>240200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>241300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>242200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>241800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>244200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>242700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>241800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>241400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>244200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>245300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>249000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>250600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>253400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>256500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>258200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>263000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>264100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>265200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>265900</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>265100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>266500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3456,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3527,79 +3644,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E52" s="3">
         <v>56700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>38300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>33300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>38300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>38600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>19300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>21800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>16200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>38400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>42900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>43600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>42900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>39900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>37700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>41500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>38600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3669,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700400</v>
+      </c>
+      <c r="E54" s="3">
         <v>693700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>643900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>651200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>609700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>591500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>559400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>557500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>576300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>587300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>568200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>526700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>514200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>510800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>506400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>505800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>516200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>508100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>512000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>508000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>530700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>554100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3767,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3794,434 +3924,453 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E57" s="3">
         <v>64400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>37600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>23500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>31600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>27200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>40900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>25400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>33800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>29400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>27600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>31800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>31300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>22300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>28900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E58" s="3">
         <v>41800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>19400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>50400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>50100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1700</v>
-      </c>
-      <c r="S58" s="3">
-        <v>7600</v>
       </c>
       <c r="T58" s="3">
         <v>7600</v>
       </c>
       <c r="U58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="V58" s="3">
         <v>7400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>6800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E59" s="3">
         <v>118200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>129800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>143100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>114900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>112000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>94800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>104000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>101200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>100900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>108300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>105100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>101500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>95500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>108100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>107300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>101400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>107100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>106800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>112300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>108700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>230900</v>
+      </c>
+      <c r="E60" s="3">
         <v>224500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>203700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>186400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>192600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>147300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>145800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>145400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>196700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>191900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>146500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>138300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>134100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>136400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>137300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>138800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>142400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>142100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>146300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>145200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>141400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>144900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E61" s="3">
         <v>112800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>112200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>146500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>111900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>139600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>137800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>140500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>101700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>101600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>140600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>134800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>128800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>127500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>126400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>126000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>125600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>124100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>122800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>115200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>118300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>117200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E62" s="3">
         <v>60500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>54200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>45500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>46300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>41400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>40100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>30700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>18700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>19700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>20300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>22200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>23500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>20000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>19500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>21400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4291,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4362,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4433,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>415800</v>
+      </c>
+      <c r="E66" s="3">
         <v>397800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>370200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>383900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>349900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>333200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>325000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>327200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>340000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>334900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>327200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>314700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>293600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>282600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>283400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>285000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>290300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>289700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>291400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>280400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>279300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>283400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4531,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4602,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4673,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4744,8 +4912,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4815,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2073300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2107800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2107300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2101200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4957,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5028,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5099,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>284700</v>
+      </c>
+      <c r="E76" s="3">
         <v>295900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>273700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>267300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>259800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>258300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>234500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>230300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>236300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>252400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>241100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>212100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>220600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>228300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>223000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>220700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>226000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>218300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>220600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>227600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>251400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>270600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5241,155 +5430,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44652</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44470</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44379</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44288</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44099</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44008</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43917</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43735</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43644</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43553</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43371</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43280</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43189</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43007</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>19900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-22000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>11700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-11800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-13700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-31500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-24000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-10400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5415,79 +5613,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E83" s="3">
         <v>3200</v>
       </c>
       <c r="F83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>4500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4800</v>
-      </c>
-      <c r="N83" s="3">
-        <v>4900</v>
       </c>
       <c r="O83" s="3">
         <v>4900</v>
       </c>
       <c r="P83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="Q83" s="3">
         <v>5100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>5200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5400</v>
-      </c>
-      <c r="S83" s="3">
-        <v>5600</v>
       </c>
       <c r="T83" s="3">
         <v>5600</v>
       </c>
       <c r="U83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="V83" s="3">
         <v>6000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5557,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5628,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5699,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5770,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5841,79 +6055,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-27500</v>
+      </c>
+      <c r="E89" s="3">
         <v>7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>41600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-11000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>5800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-8900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>6600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>2400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>9900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-8600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5939,8 +6159,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5948,70 +6169,73 @@
         <v>-2400</v>
       </c>
       <c r="E91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-4000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-9500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>7700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6081,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6152,8 +6379,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6161,70 +6391,73 @@
         <v>-2400</v>
       </c>
       <c r="E94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-1400</v>
       </c>
       <c r="R94" s="3">
         <v>-1400</v>
       </c>
       <c r="S94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>3700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6250,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6321,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6392,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6463,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6534,217 +6777,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-8300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>6500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>8400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-600</v>
-      </c>
-      <c r="H101" s="3">
-        <v>600</v>
       </c>
       <c r="I101" s="3">
         <v>600</v>
       </c>
       <c r="J101" s="3">
+        <v>600</v>
+      </c>
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32700</v>
+      </c>
+      <c r="E102" s="3">
         <v>5000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>13300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>27800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-6900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>8600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-11900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>4100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>7500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>6800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-2800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>10900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,332 +665,344 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E7" s="2">
         <v>44652</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44470</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44379</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44288</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44099</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44008</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43917</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43735</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43644</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43553</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43371</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43280</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43189</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43007</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>157400</v>
+      </c>
+      <c r="E8" s="3">
         <v>147400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>155800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>126300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>113400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>111600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>131500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>94900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>74000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>78400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>122200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>115700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>84900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>80100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>113700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>100600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>99200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>90100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>101000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>92000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>82300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>82900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>113100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>74900</v>
+      </c>
+      <c r="E9" s="3">
         <v>78300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>77600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>60200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>52600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>56500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>59100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>45700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>36200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>41800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>59800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>39900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>38000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>53400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>50500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>47400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>42200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>52500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>44400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>48200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>42000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>52000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E10" s="3">
         <v>69100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>78200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>66100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>60800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>55100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>72400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>49200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>37800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>36600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>44100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>42100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>50100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>47900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>48500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>47600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>34100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>40900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>61100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1017,82 +1029,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>29900</v>
+      </c>
+      <c r="E12" s="3">
         <v>28800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>27400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>26600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>24800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>23500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>20700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>19500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>22100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>21700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>22300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>23500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>22800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>27100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>24900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>24100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1165,82 +1181,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>6900</v>
-      </c>
-      <c r="O14" s="3">
-        <v>400</v>
       </c>
       <c r="P14" s="3">
         <v>400</v>
       </c>
       <c r="Q14" s="3">
+        <v>400</v>
+      </c>
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>13500</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1257,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>500</v>
-      </c>
-      <c r="I15" s="3">
-        <v>800</v>
       </c>
       <c r="J15" s="3">
         <v>800</v>
       </c>
       <c r="K15" s="3">
+        <v>800</v>
+      </c>
+      <c r="L15" s="3">
         <v>700</v>
-      </c>
-      <c r="L15" s="3">
-        <v>800</v>
       </c>
       <c r="M15" s="3">
         <v>800</v>
@@ -1311,10 +1333,13 @@
         <v>800</v>
       </c>
       <c r="Z15" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1363,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E17" s="3">
         <v>144900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>140700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>121000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>111300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>115400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>115300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>96500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>84400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>96500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>115500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>98900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>92600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>88500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>106300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>104300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>98500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>99500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>109600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>106200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>109700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>104100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>129300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-10400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-18100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-9400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-14200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-27400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-21200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-16200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1514,156 +1546,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E21" s="3">
         <v>5700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>8400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>20000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-13800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>11600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-3200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-7100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-6400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-11500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-25300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-18600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1671,43 +1710,43 @@
         <v>1400</v>
       </c>
       <c r="E22" s="3">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>2700</v>
       </c>
       <c r="G22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H22" s="3">
         <v>2600</v>
       </c>
       <c r="I22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3000</v>
       </c>
       <c r="O22" s="3">
         <v>3000</v>
       </c>
       <c r="P22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>24</v>
@@ -1718,8 +1757,8 @@
       <c r="T22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1736,156 +1775,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>12500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-13800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-21200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-6900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-12600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-17500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-30900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-24300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-19100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-7400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>900</v>
       </c>
       <c r="S24" s="3">
         <v>900</v>
       </c>
       <c r="T24" s="3">
+        <v>900</v>
+      </c>
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-14700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1958,156 +2006,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>13500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-22000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>11700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-11800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-7800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-13700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>2700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-31500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>13500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-22000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>11700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-11800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-13700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>2700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-31500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2180,8 +2237,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2215,8 +2275,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -2236,11 +2296,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2254,8 +2314,11 @@
       <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2391,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,156 +2468,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>1600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>2800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-22000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>11700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-11800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-13700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-31500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,161 +2699,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-22000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>11700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-11800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-13700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-31500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E38" s="2">
         <v>44652</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44470</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44379</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44288</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44099</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44008</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43917</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43735</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43644</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43553</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43371</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43280</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43189</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43007</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2889,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,82 +2918,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>121800</v>
+      </c>
+      <c r="E41" s="3">
         <v>100700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>133400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>128400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>115200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>98600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>70800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>77700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>71700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>93100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>66700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>58100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>69900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>66000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>61700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>54100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>52000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>57000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>50000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>52900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>55300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>55600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2976,309 +3065,324 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
         <v>6900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>111100</v>
+      </c>
+      <c r="E43" s="3">
         <v>120300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>96600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>87100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>114500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>96800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>76000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>91600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>79100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>106000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>109800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>114900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>74700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>69800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>92900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>89100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>85400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>86500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>76500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>78100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>66700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>75800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>92700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>82600</v>
+      </c>
+      <c r="E44" s="3">
         <v>81800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>71200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>51900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>43000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>35500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>35000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>36800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>32100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>34900</v>
-      </c>
-      <c r="M44" s="3">
-        <v>29000</v>
       </c>
       <c r="N44" s="3">
         <v>29000</v>
       </c>
       <c r="O44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="P44" s="3">
         <v>27700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>29300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>25600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>23300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>23000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>25100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>26000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>31800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>35100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>39900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>41200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E45" s="3">
         <v>22500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>19000</v>
       </c>
       <c r="L45" s="3">
         <v>19000</v>
       </c>
       <c r="M45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="N45" s="3">
         <v>19500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>26400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>25000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>16600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>21400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>20400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>338400</v>
+      </c>
+      <c r="E46" s="3">
         <v>325400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>323100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>291200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>301100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>260700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>238000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>214000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>207900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>231600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>251400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>236900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>185500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>181100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>196700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>187200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>179100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>181800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>171800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>176100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>172800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>192400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>216800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3300,29 +3404,29 @@
       <c r="I47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="3">
         <v>16900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>21400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>19900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>18700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>25400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>23800</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>24</v>
@@ -3333,8 +3437,8 @@
       <c r="T47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U47" s="3">
-        <v>0</v>
+      <c r="U47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="V47" s="3">
         <v>0</v>
@@ -3351,156 +3455,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>68800</v>
+      </c>
+      <c r="E48" s="3">
         <v>72100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>73700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>74500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>68900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>70700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>66400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>66600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>63400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>50400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>46600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>49700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>42600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>25600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>27700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>30700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>31600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>32200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E49" s="3">
         <v>239600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>240200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>241300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>242200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>241800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>244200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>242700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>241800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>241400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>244200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>245300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>249000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>250600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>253400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>256500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>258200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>263000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>264100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>265200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>265900</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>265100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>266500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3686,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,82 +3763,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E52" s="3">
         <v>63300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>56700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>38300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>38300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>19300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>16200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>38400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>38600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>42900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>43600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>42900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>39900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>37700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>41500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>38600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +3917,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>698500</v>
+      </c>
+      <c r="E54" s="3">
         <v>700400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>693700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>643900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>651200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>609700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>591500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>559400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>557500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>576300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>587300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>568200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>526700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>514200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>510800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>506400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>505800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>516200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>508100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>512000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>508000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>530700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>554100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4025,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,452 +4054,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E57" s="3">
         <v>52500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>37600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>36100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>23500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>31600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>25400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>33800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>29400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>27600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>31800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>31300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>22300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>28900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E58" s="3">
         <v>42400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>41800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>11800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>19400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>50400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>50100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>7000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1700</v>
-      </c>
-      <c r="T58" s="3">
-        <v>7600</v>
       </c>
       <c r="U58" s="3">
         <v>7600</v>
       </c>
       <c r="V58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="W58" s="3">
         <v>7400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7100</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>141200</v>
+      </c>
+      <c r="E59" s="3">
         <v>135900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>118200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>129800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>143100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>114900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>112000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>94800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>104000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>101200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>100900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>108300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>105100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>101500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>95500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>108100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>107300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>101400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>107100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>106800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>112300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>108700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E60" s="3">
         <v>230900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>224500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>203700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>186400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>192600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>147300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>145800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>145400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>196700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>191900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>146500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>138300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>134100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>136400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>137300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>138800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>142400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>142100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>146300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>145200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>141400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>144900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>124600</v>
+      </c>
+      <c r="E61" s="3">
         <v>126100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>112800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>112200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>146500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>111900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>139600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>137800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>140500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>101700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>101600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>140600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>134800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>128800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>127500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>126400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>126000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>125600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>124100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>122800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>115200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>118300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>117200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E62" s="3">
         <v>58900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>60500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>54200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>51000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>45500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>46300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>41400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>40100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>30700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>18700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>20300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>22200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>23500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>22300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>20000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>19500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>21400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4591,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4517,8 +4668,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4745,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>401600</v>
+      </c>
+      <c r="E66" s="3">
         <v>415800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>397800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>370200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>383900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>349900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>333200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>325000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>327200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>340000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>334900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>327200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>314700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>293600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>282600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>283400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>285000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>290300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>289700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>291400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>280400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>279300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>283400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +4853,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +4928,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5005,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4915,8 +5082,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5159,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2061300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2073300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2107800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2107300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2101200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5313,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5390,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5467,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>296800</v>
+      </c>
+      <c r="E76" s="3">
         <v>284700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>295900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>273700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>267300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>259800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>258300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>234500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>230300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>236300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>252400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>241100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>212100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>220600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>228300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>223000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>220700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>226000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>218300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>220600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>227600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>251400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>270600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,161 +5621,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44743</v>
+      </c>
+      <c r="E80" s="2">
         <v>44652</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44470</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44379</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44288</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44099</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44008</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43917</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43735</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43644</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43553</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43371</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43280</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43189</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43007</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-22000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>11700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-11800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-13700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-31500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-10400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,82 +5811,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>3200</v>
       </c>
       <c r="F83" s="3">
         <v>3200</v>
       </c>
       <c r="G83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H83" s="3">
         <v>3100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>4500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4800</v>
-      </c>
-      <c r="O83" s="3">
-        <v>4900</v>
       </c>
       <c r="P83" s="3">
         <v>4900</v>
       </c>
       <c r="Q83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="R83" s="3">
         <v>5100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5400</v>
-      </c>
-      <c r="T83" s="3">
-        <v>5600</v>
       </c>
       <c r="U83" s="3">
         <v>5600</v>
       </c>
       <c r="V83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="W83" s="3">
         <v>6000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +5963,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6040,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6117,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6194,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,82 +6271,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-27500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>30200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>5800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-8900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>6600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>2400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>9900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-8600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,82 +6379,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-2400</v>
+        <v>-3100</v>
       </c>
       <c r="E91" s="3">
         <v>-2400</v>
       </c>
       <c r="F91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-9500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-3100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>7700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6531,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,82 +6608,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2400</v>
+        <v>4900</v>
       </c>
       <c r="E94" s="3">
         <v>-2400</v>
       </c>
       <c r="F94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-2900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-1400</v>
       </c>
       <c r="S94" s="3">
         <v>-1400</v>
       </c>
       <c r="T94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="U94" s="3">
         <v>-1800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-3100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>3700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6716,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +6791,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +6868,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +6945,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,226 +7022,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-8300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>5400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1400</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>6500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>8400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-600</v>
-      </c>
-      <c r="I101" s="3">
-        <v>600</v>
       </c>
       <c r="J101" s="3">
         <v>600</v>
       </c>
       <c r="K101" s="3">
+        <v>600</v>
+      </c>
+      <c r="L101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>500</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>600</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>13300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>27800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-21300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-11900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>4100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>7500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>6800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-2800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>10900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,344 +665,357 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44743</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44652</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44470</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44379</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44288</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44099</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43917</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43644</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43553</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43371</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43280</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43189</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43007</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>155700</v>
+      </c>
+      <c r="E8" s="3">
         <v>157400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>147400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>155800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>126300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>113400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>111600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>131500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>94900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>78400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>122200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>115700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>84900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>80100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>113700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>100600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>99200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>90100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>101000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>92000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>82300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>82900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>113100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E9" s="3">
         <v>74900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>78300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>77600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>60200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>52600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>56500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>59100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>45700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>36200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>41800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>39900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>38000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>53400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>50500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>47400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>42200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>52500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>44400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>48200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>42000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>52000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>78600</v>
+      </c>
+      <c r="E10" s="3">
         <v>82500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>69100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>78200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>66100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>60800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>55100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>72400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>49200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>37800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>36600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>44100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>42100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>60300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>50100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>47900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>48500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>47600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>34100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>40900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>61100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1030,85 +1043,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E12" s="3">
         <v>29900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>28800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>27400</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>26600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>24800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>23500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>20700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>19500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>22100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>21700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>22300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>23500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22800</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>21300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>27100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>24900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>24100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1184,85 +1201,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3">
         <v>700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>6900</v>
-      </c>
-      <c r="P14" s="3">
-        <v>400</v>
       </c>
       <c r="Q14" s="3">
         <v>400</v>
       </c>
       <c r="R14" s="3">
+        <v>400</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>13500</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1282,19 +1305,19 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>800</v>
       </c>
       <c r="K15" s="3">
         <v>800</v>
       </c>
       <c r="L15" s="3">
+        <v>800</v>
+      </c>
+      <c r="M15" s="3">
         <v>700</v>
-      </c>
-      <c r="M15" s="3">
-        <v>800</v>
       </c>
       <c r="N15" s="3">
         <v>800</v>
@@ -1336,10 +1359,13 @@
         <v>800</v>
       </c>
       <c r="AA15" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1364,162 +1390,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>144300</v>
+      </c>
+      <c r="E17" s="3">
         <v>142400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>144900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>140700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>121000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>111300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>115400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>115300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>96500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>84400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>96500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>115500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>98900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>92600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>88500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>106300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>104300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>98500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>99500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>109600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>106200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>109700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>104100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>129300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E18" s="3">
         <v>15000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-10400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-18100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-9400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-8600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-14200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-27400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-21200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-16200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1547,209 +1580,216 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>4300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E21" s="3">
         <v>22400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>5700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>20000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-13800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>11600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>20100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-7100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-6400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-11500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-25300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-18600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
         <v>1400</v>
       </c>
       <c r="F22" s="3">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="G22" s="3">
         <v>2700</v>
       </c>
       <c r="H22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I22" s="3">
         <v>2600</v>
       </c>
       <c r="J22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3000</v>
       </c>
       <c r="P22" s="3">
         <v>3000</v>
       </c>
       <c r="Q22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R22" s="3">
         <v>2900</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>24</v>
@@ -1760,8 +1800,8 @@
       <c r="U22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1778,162 +1818,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E23" s="3">
         <v>18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>12500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>13400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-13800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-21200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>12300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-6900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-12600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-17500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-30900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-24300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-19100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-7400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>900</v>
       </c>
       <c r="T24" s="3">
         <v>900</v>
       </c>
       <c r="U24" s="3">
+        <v>900</v>
+      </c>
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-14700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2009,162 +2058,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E26" s="3">
         <v>14800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>13500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-22000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>11700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-7800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-13700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>2700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-15600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E27" s="3">
         <v>14800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>13500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-22000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-7800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-13700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>2700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-15600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2240,8 +2298,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2278,8 +2339,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2299,11 +2360,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2317,8 +2378,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2394,8 +2458,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2471,162 +2538,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>2800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E33" s="3">
         <v>14800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-22000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>11700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-7800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-13700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-11800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-15600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2702,167 +2778,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E35" s="3">
         <v>14800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-22000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>11700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-7800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-13700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-11800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-15600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44743</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44652</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44470</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44379</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44288</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44099</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43917</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43644</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43553</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43371</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43280</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43189</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43007</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2890,8 +2975,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2919,85 +3005,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>105300</v>
+      </c>
+      <c r="E41" s="3">
         <v>121800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>133400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>128400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>115200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>98600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>70800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>77700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>71700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>93100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>66700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>58100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>69900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>66000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>61700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>54100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>52000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>57000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>50000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>52900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>55300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>55600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3068,368 +3158,383 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
         <v>6900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E43" s="3">
         <v>111100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>120300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>96600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>87100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>114500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>96800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>76000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>91600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>79100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>106000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>109800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>114900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>74700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>69800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>92900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>89100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>85400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>86500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>76500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>78100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>66700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>75800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>92700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E44" s="3">
         <v>82600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>81800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>71200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>51900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>43000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>35500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>35000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>36800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>32100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>34900</v>
-      </c>
-      <c r="N44" s="3">
-        <v>29000</v>
       </c>
       <c r="O44" s="3">
         <v>29000</v>
       </c>
       <c r="P44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="Q44" s="3">
         <v>27700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>29300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>25600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>23300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>23000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>25100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>26000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>31800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>35100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>39900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>41200</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E45" s="3">
         <v>22900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14800</v>
-      </c>
-      <c r="L45" s="3">
-        <v>19000</v>
       </c>
       <c r="M45" s="3">
         <v>19000</v>
       </c>
       <c r="N45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="O45" s="3">
         <v>19500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>26400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>25000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>16600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>18200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>21400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>20400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>336700</v>
+      </c>
+      <c r="E46" s="3">
         <v>338400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>325400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>323100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>291200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>301100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>260700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>238000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>214000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>207900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>231600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>251400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>236900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>185500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>181100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>196700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>187200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>179100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>181800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>171800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>176100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>172800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>192400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>216800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>16900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>21400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>19900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>18700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>25400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>23800</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>24</v>
@@ -3440,8 +3545,8 @@
       <c r="U47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V47" s="3">
-        <v>0</v>
+      <c r="V47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W47" s="3">
         <v>0</v>
@@ -3458,162 +3563,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65700</v>
+      </c>
+      <c r="E48" s="3">
         <v>68800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>72100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>73700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>73100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>74500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>68900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>70700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>66400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>66600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>63400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>50400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>46600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>49700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>42600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>24200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>25600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>27700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>29300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>30700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>31600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>32200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>233900</v>
+      </c>
+      <c r="E49" s="3">
         <v>236900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>239600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>240200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>241300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>242200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>241800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>244200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>242700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>241800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>241400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>244200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>245300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>249000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>250600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>253400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>256500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>258200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>263000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>264100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>265200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>265900</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>265100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>266500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3689,8 +3803,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3766,85 +3883,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61600</v>
+      </c>
+      <c r="E52" s="3">
         <v>54300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>63300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>56700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>38300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>19300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>16200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>38400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>38600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>42900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>43600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>42900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>39900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>37700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>41500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>38600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3920,85 +4043,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>697900</v>
+      </c>
+      <c r="E54" s="3">
         <v>698500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>693700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>643900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>651200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>609700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>591500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>559400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>557500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>576300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>587300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>568200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>526700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>514200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>510800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>506400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>505800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>516200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>508100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>512000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>508000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>530700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>554100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4026,8 +4155,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4055,470 +4185,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>60900</v>
+      </c>
+      <c r="E57" s="3">
         <v>38500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>52500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>37600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>36100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>23500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>31600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>27200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>25400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>33800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>29400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>29000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>27600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>33100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>31800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>31300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>22300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>28900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>42100</v>
+      </c>
+      <c r="E58" s="3">
         <v>42300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>42400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>41800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>5700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>11800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>19400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>50400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>50100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1700</v>
-      </c>
-      <c r="U58" s="3">
-        <v>7600</v>
       </c>
       <c r="V58" s="3">
         <v>7600</v>
       </c>
       <c r="W58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="X58" s="3">
         <v>7400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>7100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E59" s="3">
         <v>141200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>135900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>118200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>129800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>143100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>114900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>112000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>94800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>104000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>101200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>100900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>108300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>105100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>101500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>95500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>100200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>108100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>107300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>101400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>107100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>106800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>112300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>108700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>221900</v>
+      </c>
+      <c r="E60" s="3">
         <v>222000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>230900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>224500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>203700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>186400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>192600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>147300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>145800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>145400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>196700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>191900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>146500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>138300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>134100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>136400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>137300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>138800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>142400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>142100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>146300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>145200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>141400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>144900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E61" s="3">
         <v>124600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>126100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>112800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>112200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>146500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>111900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>139600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>137800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>140500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>101700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>101600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>140600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>134800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>128800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>127500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>126400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>126000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>125600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>124100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>122800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>115200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>118300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>117200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>51500</v>
+      </c>
+      <c r="E62" s="3">
         <v>55000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>58900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>60500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>54200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>51000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>45500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>46300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>41400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>40100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>30700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>18700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>19700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>20300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>22200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>23500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>22300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>20000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>19500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>21400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4594,8 +4743,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4671,8 +4823,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4748,85 +4903,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>397300</v>
+      </c>
+      <c r="E66" s="3">
         <v>401600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>415800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>397800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>370200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>383900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>349900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>333200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>325000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>327200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>340000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>334900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>327200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>314700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>293600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>282600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>283400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>285000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>290300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>289700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>291400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>280400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>279300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>283400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4854,8 +5015,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4931,8 +5093,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5008,8 +5173,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5085,8 +5253,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5162,85 +5333,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2052700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2061300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2073300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2107800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2107300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2101200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5316,8 +5493,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5393,8 +5573,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5470,85 +5653,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>300600</v>
+      </c>
+      <c r="E76" s="3">
         <v>296800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>284700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>295900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>273700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>267300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>259800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>258300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>234500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>230300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>236300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>252400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>241100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>212100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>220600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>228300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>223000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>220700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>226000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>218300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>220600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>227600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>251400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>270600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5624,167 +5813,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44743</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44652</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44470</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44379</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44288</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44099</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43917</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43644</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43553</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43371</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43280</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43189</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43007</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E81" s="3">
         <v>14800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-22000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>11700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-7800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-13700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-11800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-15600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-31500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-10400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5812,85 +6010,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E83" s="3">
         <v>3000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>3200</v>
       </c>
       <c r="G83" s="3">
         <v>3200</v>
       </c>
       <c r="H83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I83" s="3">
         <v>3100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>4500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4800</v>
-      </c>
-      <c r="P83" s="3">
-        <v>4900</v>
       </c>
       <c r="Q83" s="3">
         <v>4900</v>
       </c>
       <c r="R83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="S83" s="3">
         <v>5100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5400</v>
-      </c>
-      <c r="U83" s="3">
-        <v>5600</v>
       </c>
       <c r="V83" s="3">
         <v>5600</v>
       </c>
       <c r="W83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="X83" s="3">
         <v>6000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5966,8 +6168,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6043,8 +6248,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6120,8 +6328,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6197,8 +6408,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6274,85 +6488,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E89" s="3">
         <v>21800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-27500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>15200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>41600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>11900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-11000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>30200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>5800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>4200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>2400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>9900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-8600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>13100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6380,85 +6600,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-2400</v>
       </c>
       <c r="F91" s="3">
         <v>-2400</v>
       </c>
       <c r="G91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-5400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-2000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-3100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>7700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6534,8 +6758,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6611,85 +6838,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E94" s="3">
         <v>4900</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-2400</v>
       </c>
       <c r="F94" s="3">
         <v>-2400</v>
       </c>
       <c r="G94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H94" s="3">
         <v>-2900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-5400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-1400</v>
       </c>
       <c r="T94" s="3">
         <v>-1400</v>
       </c>
       <c r="U94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-3100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>3700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6717,8 +6950,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6794,8 +7028,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6871,8 +7108,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6948,8 +7188,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7025,235 +7268,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>4700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>5400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>6500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>8400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-600</v>
-      </c>
-      <c r="J101" s="3">
-        <v>600</v>
       </c>
       <c r="K101" s="3">
         <v>600</v>
       </c>
       <c r="L101" s="3">
+        <v>600</v>
+      </c>
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>600</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E102" s="3">
         <v>21100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-32700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>13300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>27800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-21300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>4100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>7500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>6800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-2800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>10900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,357 +665,369 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44743</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44652</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44470</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44379</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44288</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43644</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43553</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43371</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43280</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43189</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43007</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>164300</v>
+      </c>
+      <c r="E8" s="3">
         <v>155700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>157400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>147400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>155800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>126300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>113400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>111600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>131500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>94900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>78400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>122200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>115700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>84900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>80100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>113700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>100600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>99200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>90100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>101000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>92000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>82300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>82900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>113100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E9" s="3">
         <v>77100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>74900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>78300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>77600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>60200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>52600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>56500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>59100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>45700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>36200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>41800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>39900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>38000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>53400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>50500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>47400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>42200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>52500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>44400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>48200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>42000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>52000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E10" s="3">
         <v>78600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>82500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>69100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>78200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>66100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>55100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>72400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>49200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>37800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>36600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>62400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>44100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>42100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>60300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>50100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>51800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>47900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>48500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>47600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>34100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>40900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>61100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1044,88 +1056,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E12" s="3">
         <v>30500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>29900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>28800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>27400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>26600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>24800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>23500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>20700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>19500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>22100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>20200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>22300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>23500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>21300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>27100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>24900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>24100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1204,88 +1220,94 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>2100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6900</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>400</v>
       </c>
       <c r="R14" s="3">
         <v>400</v>
       </c>
       <c r="S14" s="3">
+        <v>400</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>13500</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,19 +1330,19 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>800</v>
       </c>
       <c r="L15" s="3">
         <v>800</v>
       </c>
       <c r="M15" s="3">
+        <v>800</v>
+      </c>
+      <c r="N15" s="3">
         <v>700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>800</v>
       </c>
       <c r="O15" s="3">
         <v>800</v>
@@ -1362,10 +1384,13 @@
         <v>800</v>
       </c>
       <c r="AB15" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1391,168 +1416,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E17" s="3">
         <v>144300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>142400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>144900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>140700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>121000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>111300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>115400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>115300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>96500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>84400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>96500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>115500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>98900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>92600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>88500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>106300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>104300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>98500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>99500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>109600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>106200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>109700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>104100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>129300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E18" s="3">
         <v>11400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>15000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-10400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-18100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-7700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-9400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-8600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-14200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-27400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-21200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-16200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1581,218 +1613,225 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>19300</v>
+      </c>
+      <c r="E21" s="3">
         <v>14400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>22400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>18300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>20000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-7300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-13800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>20100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-3200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>3400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-6400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-25300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-18600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-11300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>1400</v>
       </c>
       <c r="G22" s="3">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="H22" s="3">
         <v>2700</v>
       </c>
       <c r="I22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J22" s="3">
         <v>2600</v>
       </c>
       <c r="K22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3000</v>
       </c>
       <c r="Q22" s="3">
         <v>3000</v>
       </c>
       <c r="R22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S22" s="3">
         <v>2900</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>24</v>
@@ -1803,8 +1842,8 @@
       <c r="V22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1821,168 +1860,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E23" s="3">
         <v>10000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>12500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>13400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-13800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-21200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>3900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>12300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>4600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-12600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-12000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-17500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-30900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-24300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-19100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E24" s="3">
         <v>1300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-7400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1200</v>
-      </c>
-      <c r="T24" s="3">
-        <v>900</v>
       </c>
       <c r="U24" s="3">
         <v>900</v>
       </c>
       <c r="V24" s="3">
+        <v>900</v>
+      </c>
+      <c r="W24" s="3">
         <v>1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-14700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2061,168 +2109,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E26" s="3">
         <v>8700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>13500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-22000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>11700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-11800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-13700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>2700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-24000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E27" s="3">
         <v>8700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>13500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-22000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-11800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-13700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>2700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-24000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2301,8 +2358,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2342,8 +2402,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2363,11 +2423,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2381,8 +2441,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2461,8 +2524,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2541,168 +2607,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>2800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E33" s="3">
         <v>8700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-22000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>11700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-11800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-13700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-11800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-24000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2781,173 +2856,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E35" s="3">
         <v>8700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-22000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>11700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-11800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-13700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-11800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-24000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44743</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44652</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44470</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44379</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44288</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43644</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43553</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43371</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43280</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43189</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43007</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2976,8 +3060,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3006,88 +3091,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89600</v>
+      </c>
+      <c r="E41" s="3">
         <v>105300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>121800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>133400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>128400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>115200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>98600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>70800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>77700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>71700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>93100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>66700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>58100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>69900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>66000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>61700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>54100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>52000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>57000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>50000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>52900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>55300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>55600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3161,333 +3250,348 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
         <v>6900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>114000</v>
+      </c>
+      <c r="E43" s="3">
         <v>111000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>111100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>120300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>96600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>87100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>114500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>96800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>76000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>91600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>79100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>106000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>109800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>114900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>74700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>69800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>92900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>89100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>85400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>86500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>76500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>78100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>66700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>75800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>92700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E44" s="3">
         <v>99000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>82600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>81800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>71200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>51900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>43000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>35500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>36800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>32100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>34900</v>
-      </c>
-      <c r="O44" s="3">
-        <v>29000</v>
       </c>
       <c r="P44" s="3">
         <v>29000</v>
       </c>
       <c r="Q44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="R44" s="3">
         <v>27700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>29300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>25600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>23300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>23000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>25100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>26000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>31800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>35100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>39900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>41200</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E45" s="3">
         <v>21400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>27600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>19000</v>
       </c>
       <c r="N45" s="3">
         <v>19000</v>
       </c>
       <c r="O45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="P45" s="3">
         <v>19500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>25000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>13100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>16600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>18200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>16200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>18000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>21400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>20400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>345300</v>
+      </c>
+      <c r="E46" s="3">
         <v>336700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>338400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>325400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>323100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>291200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>301100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>260700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>238000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>214000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>207900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>231600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>251400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>236900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>185500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>181100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>196700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>187200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>179100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>181800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>171800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>176100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>172800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>192400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>216800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3512,32 +3616,32 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>16900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>21400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>19900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>18700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>25400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>23800</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>24</v>
@@ -3548,8 +3652,8 @@
       <c r="V47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W47" s="3">
-        <v>0</v>
+      <c r="W47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="X47" s="3">
         <v>0</v>
@@ -3566,168 +3670,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E48" s="3">
         <v>65700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>68800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>72100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>73700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>73100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>74500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>68900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>70700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>66400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>66600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>63400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>50400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>46600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>49700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>42600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>22300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>24200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>25600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>27700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>29300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>30700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>31600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>32200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>237700</v>
+      </c>
+      <c r="E49" s="3">
         <v>233900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>236900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>239600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>240200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>241300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>242200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>241800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>244200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>242700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>241800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>241400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>244200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>245300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>249000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>250600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>253400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>256500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>258200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>263000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>264100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>265200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>265900</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>265100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>266500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3806,8 +3919,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3886,88 +4002,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E52" s="3">
         <v>61600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>54300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>63300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>56700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>38300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>19300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>16200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>38400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>38600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>42900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>43600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>42900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>39900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>37700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>41500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>38600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4046,88 +4168,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>710000</v>
+      </c>
+      <c r="E54" s="3">
         <v>697900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>698500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>693700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>643900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>651200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>609700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>591500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>559400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>557500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>576300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>587300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>568200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>526700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>514200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>510800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>506400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>505800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>516200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>508100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>512000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>508000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>530700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>554100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4156,8 +4284,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4186,488 +4315,507 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>67500</v>
+      </c>
+      <c r="E57" s="3">
         <v>60900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>52500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>37600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>36100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>23500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>31600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>27200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>31200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>25400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>33800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>29400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>29000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>27600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>33100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>31800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>31300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>22300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>28900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>118700</v>
+      </c>
+      <c r="E58" s="3">
         <v>42100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>42300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>42400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>41800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>5700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>11800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>19400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>14200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>50400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>7000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1700</v>
-      </c>
-      <c r="V58" s="3">
-        <v>7600</v>
       </c>
       <c r="W58" s="3">
         <v>7600</v>
       </c>
       <c r="X58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Y58" s="3">
         <v>7400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>7100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>6800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7300</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>135900</v>
+      </c>
+      <c r="E59" s="3">
         <v>119000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>141200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>135900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>118200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>129800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>143100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>114900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>112000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>94800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>104000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>101200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>100900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>108300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>105100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>101500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>95500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>100200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>108100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>107300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>101400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>107100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>106800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>112300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>108700</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>322100</v>
+      </c>
+      <c r="E60" s="3">
         <v>221900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>222000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>230900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>224500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>203700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>186400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>192600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>147300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>145800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>145400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>196700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>191900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>146500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>138300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>134100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>136400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>137300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>138800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>142400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>142100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>146300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>145200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>141400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>144900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E61" s="3">
         <v>123900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>124600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>126100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>112800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>112200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>146500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>111900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>139600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>137800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>140500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>101700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>101600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>140600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>134800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>128800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>127500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>126400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>126000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>125600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>124100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>122800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>115200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>118300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>117200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E62" s="3">
         <v>51500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>55000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>58900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>60500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>54200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>51000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>45500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>46300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>41400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>40100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>30700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>18700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>19700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>20300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>22200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>23500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>22300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>20000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>19500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>21400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4746,8 +4894,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4826,8 +4977,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4906,88 +5060,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>385500</v>
+      </c>
+      <c r="E66" s="3">
         <v>397300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>401600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>415800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>397800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>370200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>383900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>349900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>333200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>325000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>327200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>340000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>334900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>327200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>314700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>293600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>282600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>283400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>285000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>290300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>289700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>291400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>280400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>279300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>283400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5016,8 +5176,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5096,8 +5257,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5176,8 +5340,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5256,8 +5423,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5336,88 +5506,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2046600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2052700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2061300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2073300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2107800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2107300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2101200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5496,8 +5672,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5576,8 +5755,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5656,88 +5838,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>324500</v>
+      </c>
+      <c r="E76" s="3">
         <v>300600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>296800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>284700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>295900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>273700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>267300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>259800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>258300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>234500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>230300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>236300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>252400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>241100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>212100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>220600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>228300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>223000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>220700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>226000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>218300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>220600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>227600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>251400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>270600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5816,173 +6004,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44743</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44652</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44470</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44379</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44288</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43644</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43553</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43371</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43280</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43189</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43007</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E81" s="3">
         <v>8700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-22000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>11700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-11800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-13700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-11800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-15600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-31500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-24000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-10400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6011,88 +6208,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E83" s="3">
         <v>3100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>3200</v>
       </c>
       <c r="H83" s="3">
         <v>3200</v>
       </c>
       <c r="I83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J83" s="3">
         <v>3100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>4500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>4900</v>
       </c>
       <c r="R83" s="3">
         <v>4900</v>
       </c>
       <c r="S83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="T83" s="3">
         <v>5100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5400</v>
-      </c>
-      <c r="V83" s="3">
-        <v>5600</v>
       </c>
       <c r="W83" s="3">
         <v>5600</v>
       </c>
       <c r="X83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Y83" s="3">
         <v>6000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>7700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6171,8 +6372,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6251,8 +6455,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6331,8 +6538,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6411,8 +6621,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6491,88 +6704,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-27500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>15200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-11000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>5800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-8900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>4200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>2400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>9900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>13100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6601,8 +6820,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6610,79 +6830,82 @@
         <v>-1900</v>
       </c>
       <c r="E91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-2400</v>
       </c>
       <c r="G91" s="3">
         <v>-2400</v>
       </c>
       <c r="H91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-5400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-2300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>7700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6761,8 +6984,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6841,8 +7067,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6850,79 +7079,82 @@
         <v>-1900</v>
       </c>
       <c r="E94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F94" s="3">
         <v>4900</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-2400</v>
       </c>
       <c r="G94" s="3">
         <v>-2400</v>
       </c>
       <c r="H94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I94" s="3">
         <v>-2900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-1400</v>
       </c>
       <c r="U94" s="3">
         <v>-1400</v>
       </c>
       <c r="V94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="W94" s="3">
         <v>-1800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-2000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>3700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6951,8 +7183,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7031,8 +7264,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7111,8 +7347,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7191,8 +7430,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7271,244 +7513,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>4700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>3200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>5400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>6500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-5800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>1900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>8400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-600</v>
-      </c>
-      <c r="K101" s="3">
-        <v>600</v>
       </c>
       <c r="L101" s="3">
         <v>600</v>
       </c>
       <c r="M101" s="3">
+        <v>600</v>
+      </c>
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>400</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>600</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-16500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-32700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>13300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>27800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-21300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>8600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>4100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>7500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-6400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>6800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>10900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,369 +665,382 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44743</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44652</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44470</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44379</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44288</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43644</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43553</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43371</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43280</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43189</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43007</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>157600</v>
+      </c>
+      <c r="E8" s="3">
         <v>164300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>155700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>157400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>147400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>155800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>126300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>113400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>111600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>131500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>94900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>74000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>78400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>122200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>115700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>84900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>80100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>113700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>100600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>99200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>90100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>101000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>92000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>82300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>82900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>113100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E9" s="3">
         <v>78200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>77100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>74900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>78300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>77600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>60200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>52600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>56500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>59100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>45700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>36200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>41800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>39900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>38000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>53400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>50500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>47400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>42200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>52500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>44400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>48200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>42000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>52000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E10" s="3">
         <v>86100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>78600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>82500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>69100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>78200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>66100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>55100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>72400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>49200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>37800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>36600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>62400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>44100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>42100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>50100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>51800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>47900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>48500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>47600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>34100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>40900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>61100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1057,91 +1070,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E12" s="3">
         <v>31100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>30500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>29900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>28800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>27400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>26600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>24800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>23500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>20700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>19500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>22100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>21700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>20200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>22300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>23500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>22800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>21300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>27100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>24900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>24100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1223,96 +1240,102 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>2100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6900</v>
-      </c>
-      <c r="R14" s="3">
-        <v>400</v>
       </c>
       <c r="S14" s="3">
         <v>400</v>
       </c>
       <c r="T14" s="3">
+        <v>400</v>
+      </c>
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>13500</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1333,19 +1356,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>800</v>
       </c>
       <c r="M15" s="3">
         <v>800</v>
       </c>
       <c r="N15" s="3">
+        <v>800</v>
+      </c>
+      <c r="O15" s="3">
         <v>700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>800</v>
       </c>
       <c r="P15" s="3">
         <v>800</v>
@@ -1387,10 +1410,13 @@
         <v>800</v>
       </c>
       <c r="AC15" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1417,174 +1443,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>146500</v>
+      </c>
+      <c r="E17" s="3">
         <v>147900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>144300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>142400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>144900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>140700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>121000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>111300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>115400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>96500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>84400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>96500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>115500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>98900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>92600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>88500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>106300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>104300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>98500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>99500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>109600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>106200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>109700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>104100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>129300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E18" s="3">
         <v>16400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>15000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-10400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-18100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-8400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-9400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-8600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-27400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-21200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-16200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1614,8 +1647,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1623,218 +1657,224 @@
         <v>-200</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E21" s="3">
         <v>19300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>22400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>18300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>20000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-13800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>20100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-3200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>3400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-25300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-18600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-11300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1400</v>
       </c>
       <c r="G22" s="3">
         <v>1400</v>
       </c>
       <c r="H22" s="3">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="I22" s="3">
         <v>2700</v>
       </c>
       <c r="J22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="K22" s="3">
         <v>2600</v>
       </c>
       <c r="L22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3000</v>
       </c>
       <c r="R22" s="3">
         <v>3000</v>
       </c>
       <c r="S22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T22" s="3">
         <v>2900</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>24</v>
@@ -1845,8 +1885,8 @@
       <c r="W22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
+      <c r="X22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Y22" s="3">
         <v>0</v>
@@ -1863,174 +1903,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E23" s="3">
         <v>15300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>12500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>13400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-13800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-21200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>4600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-12600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-17500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-30900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-24300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-19100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>9200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-7400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1200</v>
-      </c>
-      <c r="U24" s="3">
-        <v>900</v>
       </c>
       <c r="V24" s="3">
         <v>900</v>
       </c>
       <c r="W24" s="3">
+        <v>900</v>
+      </c>
+      <c r="X24" s="3">
         <v>1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-200</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-8600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2112,174 +2161,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E26" s="3">
         <v>6100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>13500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-5400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-22000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>5600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>11700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-11800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-13700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>2700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-10400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E27" s="3">
         <v>6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>13500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-5400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-22000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>5600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-11800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-13700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>2700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-10400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2361,8 +2419,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2405,8 +2466,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -2426,11 +2487,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>24</v>
@@ -2444,8 +2505,11 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2527,8 +2591,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2610,8 +2677,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2619,165 +2689,171 @@
         <v>200</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>2800</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E33" s="3">
         <v>6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-5400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-22000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>5600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>11700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-11800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-13700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-10400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2859,179 +2935,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E35" s="3">
         <v>6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-5400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-22000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>5600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>11700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-11800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-13700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-10400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44743</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44652</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44470</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44379</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44288</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43644</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43553</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43371</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43280</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43189</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43007</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3061,8 +3146,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3092,91 +3178,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90900</v>
+      </c>
+      <c r="E41" s="3">
         <v>89600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>105300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>121800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>133400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>128400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>115200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>98600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>70800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>77700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>71700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>93100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>66700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>58100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>69900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>66000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>61700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>54100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>52000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>57000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>50000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>52900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>55300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>55600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3253,345 +3343,360 @@
         <v>0</v>
       </c>
       <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
         <v>6900</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>93200</v>
+      </c>
+      <c r="E43" s="3">
         <v>114000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>111000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>111100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>120300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>96600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>87100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>114500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>96800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>76000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>91600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>79100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>106000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>109800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>114900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>74700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>69800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>92900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>89100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>85400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>86500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>76500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>78100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>66700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>75800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>92700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E44" s="3">
         <v>120900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>99000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>82600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>81800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>71200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>51900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>43000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>35500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>35000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>36800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>32100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>34900</v>
-      </c>
-      <c r="P44" s="3">
-        <v>29000</v>
       </c>
       <c r="Q44" s="3">
         <v>29000</v>
       </c>
       <c r="R44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="S44" s="3">
         <v>27700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>29300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>25600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>23300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>23000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>25100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>26000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>31800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>35100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>39900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>41200</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E45" s="3">
         <v>20800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>22900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>27600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>19000</v>
       </c>
       <c r="O45" s="3">
         <v>19000</v>
       </c>
       <c r="P45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="Q45" s="3">
         <v>19500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>25000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>13100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>16600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>16200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>18000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>21400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>20400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>338100</v>
+      </c>
+      <c r="E46" s="3">
         <v>345300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>336700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>338400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>325400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>323100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>291200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>301100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>260700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>238000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>214000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>207900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>231600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>251400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>236900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>185500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>181100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>196700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>187200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>179100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>181800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>171800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>176100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>172800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>192400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>216800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3619,32 +3724,32 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>16900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>21400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>19900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>18700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>25400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>23800</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>24</v>
@@ -3655,8 +3760,8 @@
       <c r="W47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X47" s="3">
-        <v>0</v>
+      <c r="X47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Y47" s="3">
         <v>0</v>
@@ -3673,174 +3778,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E48" s="3">
         <v>65300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>65700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>68800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>72100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>73700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>73100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>74500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>68900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>70700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>66400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>66600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>63400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>50400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>46600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>49700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>42600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>22300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>24200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>25600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>27700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>29300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>30700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>31600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>31700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>32200</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>238400</v>
+      </c>
+      <c r="E49" s="3">
         <v>237700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>233900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>236900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>239600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>240200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>241300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>242200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>241800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>244200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>242700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>241800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>241400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>244200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>245300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>249000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>250600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>253400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>256500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>258200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>263000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>264100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>265200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>265900</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>265100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>266500</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4036,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4005,91 +4122,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E52" s="3">
         <v>61700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>61600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>54300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>63300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>56700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>38300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>19300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>20000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>16200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>38400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>38600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>42900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>43600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>42900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>39900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>37700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>41500</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>38600</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4171,91 +4294,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>703800</v>
+      </c>
+      <c r="E54" s="3">
         <v>710000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>697900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>698500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>693700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>643900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>651200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>609700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>591500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>559400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>557500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>576300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>587300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>568200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>526700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>514200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>510800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>506400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>505800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>516200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>508100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>512000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>508000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>530700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>554100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4285,8 +4414,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4316,506 +4446,525 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55400</v>
+      </c>
+      <c r="E57" s="3">
         <v>67500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>60900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>38500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>52500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>64400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>37600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>36100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>23500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>31600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>27200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>31200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>25400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>33800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>29400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>29000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>27600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>33100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>31800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>31300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>22300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>28900</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>118900</v>
+      </c>
+      <c r="E58" s="3">
         <v>118700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>42100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>42300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>42400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>41800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>5700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>11800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>19400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>14200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>50400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>7000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1700</v>
-      </c>
-      <c r="W58" s="3">
-        <v>7600</v>
       </c>
       <c r="X58" s="3">
         <v>7600</v>
       </c>
       <c r="Y58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="Z58" s="3">
         <v>7400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>7100</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>6800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7300</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>131600</v>
+      </c>
+      <c r="E59" s="3">
         <v>135900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>119000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>141200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>135900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>118200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>129800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>143100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>114900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>112000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>94800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>104000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>101200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>100900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>108300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>105100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>101500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>95500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>100200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>108100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>107300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>101400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>107100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>106800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>112300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>108700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>305900</v>
+      </c>
+      <c r="E60" s="3">
         <v>322100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>221900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>222000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>230900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>224500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>203700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>186400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>192600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>147300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>145800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>145400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>196700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>191900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>146500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>138300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>134100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>136400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>137300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>138800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>142400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>142100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>146300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>145200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>141400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>144900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E61" s="3">
         <v>11200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>123900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>124600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>126100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>112800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>112200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>146500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>111900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>139600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>137800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>140500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>101700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>101600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>140600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>134800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>128800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>127500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>126400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>126000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>125600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>124100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>122800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>115200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>118300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>117200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E62" s="3">
         <v>52300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>51500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>55000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>58900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>60500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>54200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>51000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>45500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>46300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>41400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>40100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>41600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>30700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>18700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>19700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>20300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>22200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>23500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>22300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>20000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>19500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>21400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4897,8 +5046,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4980,8 +5132,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5063,91 +5218,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E66" s="3">
         <v>385500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>397300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>401600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>415800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>397800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>370200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>383900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>349900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>333200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>325000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>327200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>340000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>334900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>327200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>314700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>293600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>282600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>283400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>285000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>290300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>289700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>291400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>280400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>279300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>283400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5177,8 +5338,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5260,8 +5422,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5343,8 +5508,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5426,8 +5594,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5509,91 +5680,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2041500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2046600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2052700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2061300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2073300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2107800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2107300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2101200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5675,8 +5852,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5758,8 +5938,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5841,91 +6024,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>335800</v>
+      </c>
+      <c r="E76" s="3">
         <v>324500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>300600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>296800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>284700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>295900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>273700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>267300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>259800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>258300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>234500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>230300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>236300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>252400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>241100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>212100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>220600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>228300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>223000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>220700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>226000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>218300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>220600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>227600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>251400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>270600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6007,179 +6196,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44743</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44652</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44470</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44379</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44288</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43644</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43553</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43371</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43280</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43189</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43007</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E81" s="3">
         <v>6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-5400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-22000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>5600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>11700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-11800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-13700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-15600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-31500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-10400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6209,8 +6407,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6218,82 +6417,85 @@
         <v>3000</v>
       </c>
       <c r="E83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F83" s="3">
         <v>3100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>3200</v>
       </c>
       <c r="I83" s="3">
         <v>3200</v>
       </c>
       <c r="J83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K83" s="3">
         <v>3100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>4500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4800</v>
-      </c>
-      <c r="R83" s="3">
-        <v>4900</v>
       </c>
       <c r="S83" s="3">
         <v>4900</v>
       </c>
       <c r="T83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="U83" s="3">
         <v>5100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5400</v>
-      </c>
-      <c r="W83" s="3">
-        <v>5600</v>
       </c>
       <c r="X83" s="3">
         <v>5600</v>
       </c>
       <c r="Y83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Z83" s="3">
         <v>6000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>7700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6375,8 +6577,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6458,8 +6663,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6541,8 +6749,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6624,8 +6835,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6707,91 +6921,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E89" s="3">
         <v>19400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-27500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-11000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-8900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>4200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>6600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>2400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>9900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-6600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>13100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6821,91 +7041,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1900</v>
+        <v>-2300</v>
       </c>
       <c r="E91" s="3">
         <v>-1900</v>
       </c>
       <c r="F91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-2400</v>
       </c>
       <c r="H91" s="3">
         <v>-2400</v>
       </c>
       <c r="I91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-5400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>7700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6987,8 +7211,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7070,91 +7297,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1900</v>
+        <v>-2300</v>
       </c>
       <c r="E94" s="3">
         <v>-1900</v>
       </c>
       <c r="F94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G94" s="3">
         <v>4900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-2400</v>
       </c>
       <c r="H94" s="3">
         <v>-2400</v>
       </c>
       <c r="I94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="J94" s="3">
         <v>-2900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-1400</v>
       </c>
       <c r="V94" s="3">
         <v>-1400</v>
       </c>
       <c r="W94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="X94" s="3">
         <v>-1800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>3700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7184,8 +7417,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7267,8 +7501,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7350,8 +7587,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7433,8 +7673,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7516,253 +7759,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-38100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>3200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>5400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-1800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>6500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>1900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>8400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>800</v>
+      </c>
+      <c r="E101" s="3">
         <v>5000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-600</v>
-      </c>
-      <c r="L101" s="3">
-        <v>600</v>
       </c>
       <c r="M101" s="3">
         <v>600</v>
       </c>
       <c r="N101" s="3">
+        <v>600</v>
+      </c>
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>400</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>500</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>600</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-500</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-16500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-32700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>13300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>27800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-21300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>8600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>4100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>7500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>2000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-6400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>6800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>10900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,382 +665,395 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44743</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44652</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44470</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44379</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44288</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43644</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43553</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43371</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43280</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43189</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43007</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E8" s="3">
         <v>157600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>164300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>155700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>157400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>147400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>155800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>126300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>113400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>111600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>131500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>94900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>74000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>78400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>122200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>115700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>84900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>80100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>113700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>100600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>99200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>90100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>101000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>92000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>82300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>82900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>113100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E9" s="3">
         <v>73600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>78200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>77100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>74900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>78300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>77600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>60200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>56500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>59100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>45700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>36200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>41800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>59800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>39900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>38000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>53400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>50500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>47400</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>42200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>52500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>44400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>48200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>42000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>52000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E10" s="3">
         <v>84000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>86100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>78600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>82500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>69100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>78200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>66100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>55100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>72400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>49200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>37800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>36600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>62400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>75800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>44100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>42100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>60300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>50100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>51800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>47900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>48500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>47600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>34100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>40900</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>61100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1071,94 +1084,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E12" s="3">
         <v>33500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>31100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>30500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>29900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>28800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>27400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>26600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>24800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>23500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>20700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>19500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>22100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>21700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>20200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>22300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>21500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>23500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>22800</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>21300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>27100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>24900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>24100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1243,102 +1260,108 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>2100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6900</v>
-      </c>
-      <c r="S14" s="3">
-        <v>400</v>
       </c>
       <c r="T14" s="3">
         <v>400</v>
       </c>
       <c r="U14" s="3">
+        <v>400</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1800</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>13500</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1359,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>800</v>
       </c>
       <c r="N15" s="3">
         <v>800</v>
       </c>
       <c r="O15" s="3">
+        <v>800</v>
+      </c>
+      <c r="P15" s="3">
         <v>700</v>
-      </c>
-      <c r="P15" s="3">
-        <v>800</v>
       </c>
       <c r="Q15" s="3">
         <v>800</v>
@@ -1413,10 +1436,13 @@
         <v>800</v>
       </c>
       <c r="AD15" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1444,180 +1470,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E17" s="3">
         <v>146500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>147900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>144300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>142400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>144900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>140700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>121000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>111300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>115400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>115300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>96500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>84400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>96500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>115500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>98900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>92600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>88500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>106300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>104300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>98500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>99500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>109600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>106200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>109700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>104100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>129300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E18" s="3">
         <v>11100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>11400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>15000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>15100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-10400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-8400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-9400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-8600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-14200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-27400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-21200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-16200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1648,8 +1681,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1660,224 +1694,230 @@
         <v>-200</v>
       </c>
       <c r="F20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-3200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3300</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E21" s="3">
         <v>13900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>19300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>22400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>5700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>20000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>11600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>20100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-3200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>3400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-11500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-25300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-18600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-11300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1300</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1400</v>
       </c>
       <c r="H22" s="3">
         <v>1400</v>
       </c>
       <c r="I22" s="3">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="J22" s="3">
         <v>2700</v>
       </c>
       <c r="K22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="L22" s="3">
         <v>2600</v>
       </c>
       <c r="M22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2800</v>
-      </c>
-      <c r="R22" s="3">
-        <v>3000</v>
       </c>
       <c r="S22" s="3">
         <v>3000</v>
       </c>
       <c r="T22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U22" s="3">
         <v>2900</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>24</v>
@@ -1888,8 +1928,8 @@
       <c r="X22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
+      <c r="Y22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Z22" s="3">
         <v>0</v>
@@ -1906,180 +1946,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E23" s="3">
         <v>10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>10000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>12500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>13400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-13800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>12300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>4600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-12600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-12000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-17500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-30900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-24300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-19100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E24" s="3">
         <v>5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-7400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1200</v>
-      </c>
-      <c r="V24" s="3">
-        <v>900</v>
       </c>
       <c r="W24" s="3">
         <v>900</v>
       </c>
       <c r="X24" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y24" s="3">
         <v>1100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-14700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>-200</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-8600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2164,180 +2213,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>5100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>13500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-15400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>5600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>11700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-11800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>2700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-24000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-10400</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>5100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>13500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-15400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>5600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>11700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-11800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>2700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-24000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-10400</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2422,8 +2480,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2469,8 +2530,8 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2490,11 +2551,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2508,8 +2569,11 @@
       <c r="AD29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2594,8 +2658,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2680,8 +2747,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2692,168 +2762,174 @@
         <v>200</v>
       </c>
       <c r="F32" s="3">
+        <v>200</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>3200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3300</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>2800</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>5100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>13500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-15400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>5600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>11700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-11800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-11800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-24000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-10400</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2938,185 +3014,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>5100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>13500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-15400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>5600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>11700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-11800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-11800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-24000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-10400</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44743</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44652</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44470</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44379</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44288</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43644</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43553</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43371</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43280</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43189</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43007</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3147,8 +3232,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3179,94 +3265,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E41" s="3">
         <v>90900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>89600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>105300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>121800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>133400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>128400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>115200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>98600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>70800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>77700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>71700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>93100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>66700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>58100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>69900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>66000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>61700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>54100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>52000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>57000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>50000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>52900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>55300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>55600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3346,357 +3436,372 @@
         <v>0</v>
       </c>
       <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
         <v>6900</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>124700</v>
+      </c>
+      <c r="E43" s="3">
         <v>93200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>114000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>111000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>111100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>120300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>96600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>87100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>114500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>96800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>76000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>91600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>79100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>106000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>109800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>114900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>74700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>69800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>92900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>89100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>85400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>86500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>76500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>78100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>66700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>75800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>92700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>113600</v>
+      </c>
+      <c r="E44" s="3">
         <v>131600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>99000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>82600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>81800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>71200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>51900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>43000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>35500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>35000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>36800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>32100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>34900</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>29000</v>
       </c>
       <c r="R44" s="3">
         <v>29000</v>
       </c>
       <c r="S44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="T44" s="3">
         <v>27700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>29300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>25600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>23300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>23000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>25100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>26000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>31800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>35100</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>39900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>41200</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E45" s="3">
         <v>22400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>27600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>28300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>14800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>19000</v>
       </c>
       <c r="P45" s="3">
         <v>19000</v>
       </c>
       <c r="Q45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="R45" s="3">
         <v>19500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>26400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>25000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>13100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>16600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>16200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>18000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>21400</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>20400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>331500</v>
+      </c>
+      <c r="E46" s="3">
         <v>338100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>345300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>336700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>338400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>325400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>323100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>291200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>301100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>260700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>238000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>214000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>207900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>231600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>251400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>236900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>185500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>181100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>196700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>187200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>179100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>181800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>171800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>176100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>172800</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>192400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>216800</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3727,32 +3832,32 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>16900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>21400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>19900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>18700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>25400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>23800</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>24</v>
@@ -3763,8 +3868,8 @@
       <c r="X47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y47" s="3">
-        <v>0</v>
+      <c r="Y47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Z47" s="3">
         <v>0</v>
@@ -3781,180 +3886,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E48" s="3">
         <v>63300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>65300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>68800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>72100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>73700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>73100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>74500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>68900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>70700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>66400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>66600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>63400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>50400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>46600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>49700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>42600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>22300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>24200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>25600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>27700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>29300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>30700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>31600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>31700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>32200</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>238700</v>
+      </c>
+      <c r="E49" s="3">
         <v>238400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>237700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>233900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>236900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>239600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>240200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>241300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>242200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>241800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>244200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>242700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>241800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>241400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>244200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>245300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>249000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>250600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>253400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>256500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>258200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>263000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>264100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>265200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>265900</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>265100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>266500</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4039,8 +4153,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4125,94 +4242,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E52" s="3">
         <v>64000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>61700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>61600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>54300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>63300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>56700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>38300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>38300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>38600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>19300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>20000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>20700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>16200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>38400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>38600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>42900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>43600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>42900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>39900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>37700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>41500</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>38600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4297,94 +4420,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>690400</v>
+      </c>
+      <c r="E54" s="3">
         <v>703800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>710000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>697900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>698500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>693700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>643900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>651200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>609700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>591500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>559400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>557500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>576300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>587300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>568200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>526700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>514200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>510800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>506400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>505800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>516200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>508100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>512000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>508000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>530700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>554100</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4415,8 +4544,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4447,524 +4577,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E57" s="3">
         <v>55400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>67500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>38500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>52500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>64400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>23500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>31600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>27200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>31200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>25400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>33800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>29400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>29000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>27600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>33100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>31800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>31300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>22300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>28900</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>119300</v>
+      </c>
+      <c r="E58" s="3">
         <v>118900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>118700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>42100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>42300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>42400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>41800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>5700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>41500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>11800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>19400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>14200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>50400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>50100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>7100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1700</v>
-      </c>
-      <c r="X58" s="3">
-        <v>7600</v>
       </c>
       <c r="Y58" s="3">
         <v>7600</v>
       </c>
       <c r="Z58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AA58" s="3">
         <v>7400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>7100</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>6800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>7300</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>131300</v>
+      </c>
+      <c r="E59" s="3">
         <v>131600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>135900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>119000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>141200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>135900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>118200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>129800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>143100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>114900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>112000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>94800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>104000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>101200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>100900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>108300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>105100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>101500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>95500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>100200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>108100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>107300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>101400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>107100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>106800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>112300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>108700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>287700</v>
+      </c>
+      <c r="E60" s="3">
         <v>305900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>322100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>221900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>222000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>230900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>224500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>203700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>186400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>192600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>147300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>145800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>145400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>196700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>191900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>146500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>138300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>134100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>136400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>137300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>138800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>142400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>142100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>146300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>145200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>141400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>144900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E61" s="3">
         <v>11400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>123900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>124600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>126100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>112800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>112200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>146500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>111900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>139600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>137800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>140500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>101700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>101600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>140600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>134800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>128800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>127500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>126400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>126000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>125600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>124100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>122800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>115200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>118300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>117200</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>49300</v>
+      </c>
+      <c r="E62" s="3">
         <v>50800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>52300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>51500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>55000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>58900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>60500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>54200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>51000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>45500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>46300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>41400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>40100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>41600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>30700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>18700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>19700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>20300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>22200</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>23500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>22300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>20000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>19500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>21400</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5049,8 +5198,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5135,8 +5287,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5221,94 +5376,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>347600</v>
+      </c>
+      <c r="E66" s="3">
         <v>368000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>385500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>397300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>401600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>415800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>397800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>370200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>383900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>349900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>333200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>325000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>327200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>340000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>334900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>327200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>314700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>293600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>282600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>283400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>285000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>290300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>289700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>291400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>280400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>279300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>283400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5339,8 +5500,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5425,8 +5587,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5511,8 +5676,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5597,8 +5765,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5683,94 +5854,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2039900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2041500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2046600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2052700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2061300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2073300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2107800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2107300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2101200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5855,8 +6032,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5941,8 +6121,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6027,94 +6210,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>342800</v>
+      </c>
+      <c r="E76" s="3">
         <v>335800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>324500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>300600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>296800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>284700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>295900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>273700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>267300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>259800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>258300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>234500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>230300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>236300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>252400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>241100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>212100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>220600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>228300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>223000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>220700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>226000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>218300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>220600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>227600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>251400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>270600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6199,185 +6388,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44743</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44652</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44470</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44379</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44288</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43644</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43553</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43371</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43280</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43189</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43007</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>5100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>13500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-15400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>5600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>11700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-11800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-11800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-15600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-31500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-24000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-10400</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6408,94 +6606,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E83" s="3">
         <v>3000</v>
       </c>
       <c r="F83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G83" s="3">
         <v>3100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>3000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>3200</v>
       </c>
       <c r="J83" s="3">
         <v>3200</v>
       </c>
       <c r="K83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L83" s="3">
         <v>3100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>4500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4800</v>
-      </c>
-      <c r="S83" s="3">
-        <v>4900</v>
       </c>
       <c r="T83" s="3">
         <v>4900</v>
       </c>
       <c r="U83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="V83" s="3">
         <v>5100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5400</v>
-      </c>
-      <c r="X83" s="3">
-        <v>5600</v>
       </c>
       <c r="Y83" s="3">
         <v>5600</v>
       </c>
       <c r="Z83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AA83" s="3">
         <v>6000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>5700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>7700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6580,8 +6782,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6666,8 +6871,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6752,8 +6960,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6838,8 +7049,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6924,94 +7138,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E89" s="3">
         <v>6300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-27500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>7400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>30200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>4200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>6600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>2400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>9900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-6600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>9000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-3100</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>13100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7042,94 +7262,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1900</v>
       </c>
       <c r="F91" s="3">
         <v>-1900</v>
       </c>
       <c r="G91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-2400</v>
       </c>
       <c r="I91" s="3">
         <v>-2400</v>
       </c>
       <c r="J91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-5400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>7700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7214,8 +7438,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7300,94 +7527,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-1900</v>
       </c>
       <c r="F94" s="3">
         <v>-1900</v>
       </c>
       <c r="G94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="H94" s="3">
         <v>4900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-2400</v>
       </c>
       <c r="I94" s="3">
         <v>-2400</v>
       </c>
       <c r="J94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-2900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-1400</v>
       </c>
       <c r="W94" s="3">
         <v>-1400</v>
       </c>
       <c r="X94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>3700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7418,8 +7651,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7504,8 +7738,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7590,8 +7827,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7676,8 +7916,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7762,262 +8005,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-3400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-38100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-2100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-8300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>1700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>5400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1400</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>6500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>1900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>8400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-600</v>
-      </c>
-      <c r="M101" s="3">
-        <v>600</v>
       </c>
       <c r="N101" s="3">
         <v>600</v>
       </c>
       <c r="O101" s="3">
+        <v>600</v>
+      </c>
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>-700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>400</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>600</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-500</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-16500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>21100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-32700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>13300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>27800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-21300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>8600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>3900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>4100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>7500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>2000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>6800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-2800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>10900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-6800</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HLIT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>HLIT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,395 +665,408 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44743</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44652</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44470</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44379</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44288</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43644</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43553</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43371</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43280</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43189</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43007</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>127200</v>
+      </c>
+      <c r="E8" s="3">
         <v>156000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>157600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>164300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>155700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>157400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>147400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>155800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>126300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>113400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>111600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>131500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>94900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>74000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>78400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>122200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>115700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>84900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>80100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>113700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>100600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>99200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>90100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>101000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>92000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>82300</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>82900</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>113100</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>101400</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E9" s="3">
         <v>71000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>73600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>78200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>77100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>74900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>78300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>77600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>60200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>56500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>59100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>45700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>36200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>41800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>59800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>39900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>38000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>53400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>50500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>47400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>42200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>52500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>44400</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>48200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>42000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>52000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>62400</v>
+      </c>
+      <c r="E10" s="3">
         <v>85000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>84000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>86100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>78600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>82500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>69100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>78200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>66100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>72400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>49200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>37800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>36600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>62400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>75800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>44100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>42100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>60300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>50100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>51800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>47900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>48500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>47600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>34100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>40900</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>61100</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>51400</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1085,97 +1098,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>30300</v>
+      </c>
+      <c r="E12" s="3">
         <v>32200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>33500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>31100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>30500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>29900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>28800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>27400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>24800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>23500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>20700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>20200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>19500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>22100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>20200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>21300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>21400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>21900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>22300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>21500</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>23500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>22800</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>21300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>27100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>24900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>24100</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>24200</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1263,97 +1280,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>2100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>6900</v>
-      </c>
-      <c r="T14" s="3">
-        <v>400</v>
       </c>
       <c r="U14" s="3">
         <v>400</v>
       </c>
       <c r="V14" s="3">
+        <v>400</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1800</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>13500</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1363,8 +1386,8 @@
       <c r="E15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1385,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>800</v>
       </c>
       <c r="O15" s="3">
         <v>800</v>
       </c>
       <c r="P15" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q15" s="3">
         <v>700</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>800</v>
       </c>
       <c r="R15" s="3">
         <v>800</v>
@@ -1439,10 +1462,13 @@
         <v>800</v>
       </c>
       <c r="AE15" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF15" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1471,186 +1497,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>135800</v>
+      </c>
+      <c r="E17" s="3">
         <v>146000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>146500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>147900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>144300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>142400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>144900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>140700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>121000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>111300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>115400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>115300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>96500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>84400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>96500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>115500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>98900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>92600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>88500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>106300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>104300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>98500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>99500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>109600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>106200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>109700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>104100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>129300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>114600</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E18" s="3">
         <v>10000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>11100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>11400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>15000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>15100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-10400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-18100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>16800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-7700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-8400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>7400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-9400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-8600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-14200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-27400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-21200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-16200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-13200</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1682,13 +1715,14 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-200</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>-200</v>
@@ -1697,230 +1731,236 @@
         <v>-200</v>
       </c>
       <c r="G20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-2800</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-3100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E21" s="3">
         <v>12900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>13900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>19300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>14400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>22400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>5700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>5100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>20000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-13800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>11600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>20100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-3200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-3800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>3400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-7100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-11500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-25300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-18600</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-11300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-6400</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1400</v>
       </c>
       <c r="I22" s="3">
         <v>1400</v>
       </c>
       <c r="J22" s="3">
-        <v>2700</v>
+        <v>1400</v>
       </c>
       <c r="K22" s="3">
         <v>2700</v>
       </c>
       <c r="L22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="M22" s="3">
         <v>2600</v>
       </c>
       <c r="N22" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2800</v>
-      </c>
-      <c r="S22" s="3">
-        <v>3000</v>
       </c>
       <c r="T22" s="3">
         <v>3000</v>
       </c>
       <c r="U22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V22" s="3">
         <v>2900</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>24</v>
@@ -1931,8 +1971,8 @@
       <c r="Y22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
+      <c r="Z22" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AA22" s="3">
         <v>0</v>
@@ -1949,186 +1989,195 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E23" s="3">
         <v>9000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>10000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>12500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>13400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-13800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-21200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>12300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-11100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-11600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>4600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-6900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-12600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-12000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-17500</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-30900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-24300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-19100</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-16300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E24" s="3">
         <v>7500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-7400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1200</v>
-      </c>
-      <c r="W24" s="3">
-        <v>900</v>
       </c>
       <c r="X24" s="3">
         <v>900</v>
       </c>
       <c r="Y24" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z24" s="3">
         <v>1100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-14700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>-200</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>-8600</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2216,186 +2265,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>5100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>13500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-5400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-22000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>11700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-11800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-11300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>2700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-31500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-24000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-10400</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>5100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>13500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-22000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>11700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-11800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-11300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>2700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-31500</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-24000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-10400</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2483,8 +2541,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2533,8 +2594,8 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2554,11 +2615,11 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3">
         <v>-14500</v>
-      </c>
-      <c r="AA29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB29" s="3" t="s">
         <v>24</v>
@@ -2572,8 +2633,11 @@
       <c r="AE29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2661,8 +2725,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2750,13 +2817,16 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>200</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>200</v>
@@ -2765,171 +2835,177 @@
         <v>200</v>
       </c>
       <c r="G32" s="3">
+        <v>200</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>2700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>3400</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>3100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>2800</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>5100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-22000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>11700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-11800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-11300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-11800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-31500</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-24000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-10400</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3017,191 +3093,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>5100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-22000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>11700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-11800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-11300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-11800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-31500</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-24000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-10400</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44743</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44652</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44470</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44379</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44288</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43644</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43553</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43371</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43280</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43189</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43007</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3233,8 +3318,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3266,120 +3352,124 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E41" s="3">
         <v>71000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>89600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>105300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>121800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>133400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>128400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>115200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>100800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>98600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>70800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>77700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>71700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>93100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>66700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>58100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>69900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>66000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>61700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>54100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>52000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>57000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>50000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>52900</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>55300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>55600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>44700</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>6300</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -3439,369 +3529,384 @@
         <v>0</v>
       </c>
       <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
         <v>6900</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>7900</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>114700</v>
+      </c>
+      <c r="E43" s="3">
         <v>124700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>93200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>114000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>111000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>111100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>120300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>96600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>87100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>114500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>96800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>76000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>91600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>79100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>106000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>109800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>114900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>74700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>69800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>92900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>89100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>85400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>86500</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>76500</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>78100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>66700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>75800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>92700</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>99100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>103700</v>
+      </c>
+      <c r="E44" s="3">
         <v>113600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>131600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>99000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>82600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>81800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>71200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>51900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>43000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>35500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>35000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>36800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>32100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>34900</v>
-      </c>
-      <c r="R44" s="3">
-        <v>29000</v>
       </c>
       <c r="S44" s="3">
         <v>29000</v>
       </c>
       <c r="T44" s="3">
+        <v>29000</v>
+      </c>
+      <c r="U44" s="3">
         <v>27700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>29300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>25600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>23300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>23000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>25100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>26000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>31800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>35100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>39900</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>41200</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>35800</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E45" s="3">
         <v>22200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>22400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>28400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>27600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>28300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14800</v>
-      </c>
-      <c r="P45" s="3">
-        <v>19000</v>
       </c>
       <c r="Q45" s="3">
         <v>19000</v>
       </c>
       <c r="R45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="S45" s="3">
         <v>19500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>26400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>25000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>12100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>13100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>16600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>18200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>16200</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>18000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>21400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>20400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>38500</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>329100</v>
+      </c>
+      <c r="E46" s="3">
         <v>331500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>338100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>345300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>336700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>338400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>325400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>323100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>291200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>301100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>260700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>238000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>214000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>207900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>231600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>251400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>236900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>185500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>181100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>196700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>187200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>179100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>181800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>171800</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>176100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>172800</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>192400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>216800</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>226100</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3835,32 +3940,32 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>16900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>21400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>19900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>19500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>18700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>25400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>23800</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>24</v>
@@ -3871,8 +3976,8 @@
       <c r="Y47" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z47" s="3">
-        <v>0</v>
+      <c r="Z47" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="AA47" s="3">
         <v>0</v>
@@ -3889,186 +3994,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E48" s="3">
         <v>60800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>65300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>65700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>68800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>72100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>73700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>73100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>74500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>68900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>70700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>66400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>66600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>63400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>50400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>46600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>49700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>42600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>22300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>24200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>25600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>27700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>29300</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>30700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>31600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>31700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>32200</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>35100</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>237200</v>
+      </c>
+      <c r="E49" s="3">
         <v>238700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>238400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>237700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>233900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>236900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>239600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>240200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>241300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>242200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>241800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>244200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>242700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>241800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>241400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>244200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>245300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>249000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>250600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>253400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>256500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>258200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>263000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>264100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>265200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>265900</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>265100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>266500</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>273000</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4156,8 +4270,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4245,97 +4362,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E52" s="3">
         <v>59400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>64000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>61700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>61600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>54300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>63300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>56700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>38300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>38300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>38600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>19300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>19800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>20700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>16200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>38400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>38600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>42900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>43600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>42900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>39900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>37700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>41500</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>38600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4423,97 +4546,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>673800</v>
+      </c>
+      <c r="E54" s="3">
         <v>690400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>703800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>710000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>697900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>698500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>700400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>693700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>643900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>651200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>609700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>591500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>559400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>557500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>576300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>587300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>568200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>526700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>514200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>510800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>506400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>505800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>516200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>508100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>512000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>508000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>530700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>554100</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>565500</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4545,8 +4674,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4578,542 +4708,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E57" s="3">
         <v>37100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>67500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>60900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>38500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>52500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>64400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>23500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>31600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>27200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>40900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>31200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>31800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>25400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>33800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>29400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>29000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>27600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>33100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>31800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>31300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>22300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>28900</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>31400</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>119500</v>
+      </c>
+      <c r="E58" s="3">
         <v>119300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>118900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>118700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>42100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>42300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>42400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>41800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>41600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>41500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>11800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>19400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>14200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>50400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>50100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>7100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>7200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>7700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1700</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>7600</v>
       </c>
       <c r="Z58" s="3">
         <v>7600</v>
       </c>
       <c r="AA58" s="3">
+        <v>7600</v>
+      </c>
+      <c r="AB58" s="3">
         <v>7400</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>7100</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>6800</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>7300</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>6800</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>108600</v>
+      </c>
+      <c r="E59" s="3">
         <v>131300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>131600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>135900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>119000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>141200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>135900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>118200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>129800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>143100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>114900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>112000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>94800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>104000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>101200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>100900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>108300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>105100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>101500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>95500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>100200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>108100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>107300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>101400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>107100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>106800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>112300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>108700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>105200</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>275200</v>
+      </c>
+      <c r="E60" s="3">
         <v>287700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>305900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>322100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>221900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>222000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>230900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>224500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>203700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>186400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>192600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>147300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>145800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>145400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>196700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>191900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>146500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>138300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>134100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>136400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>137300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>138800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>142400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>142100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>146300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>145200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>141400</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>144900</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E61" s="3">
         <v>10500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>11400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>123900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>124600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>126100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>112800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>112200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>146500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>111900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>139600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>137800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>140500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>101700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>101600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>140600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>134800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>128800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>127500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>126400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>126000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>125600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>124100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>122800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>115200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>118300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>117200</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>117900</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E62" s="3">
         <v>49300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>50800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>52300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>51500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>55000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>58900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>60500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>54200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>51000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>45500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>46300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>41400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>41300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>41600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>41400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>40100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>41600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>30700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>18700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>19700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>20300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>22200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>23500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>22300</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>20000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>19500</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>21400</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>22600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5201,8 +5350,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5290,8 +5442,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5379,97 +5534,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E66" s="3">
         <v>347600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>368000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>385500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>397300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>401600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>415800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>397800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>370200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>383900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>349900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>333200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>325000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>327200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>340000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>334900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>327200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>314700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>293600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>282600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>283400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>285000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>290300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>289700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>291400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>280400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>279300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>283400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>284000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5501,8 +5662,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5590,8 +5752,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5679,8 +5844,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5768,8 +5936,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5857,97 +6028,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2046400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2039900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2041500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2046600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2052700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2061300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2073300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-2088000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-2107800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2107300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-2101200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-2114700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2109300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2093900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2071900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-2077500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-2089200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-2077300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-2067400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-2070700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-2063000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-2060100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-2057800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-2046000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-2030400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1998900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1976200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-1965800</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6035,8 +6212,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6124,8 +6304,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6213,97 +6396,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>340800</v>
+      </c>
+      <c r="E76" s="3">
         <v>342800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>335800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>324500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>300600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>296800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>284700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>295900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>273700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>267300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>259800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>258300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>234500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>230300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>236300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>252400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>241100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>212100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>220600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>228300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>223000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>220700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>226000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>218300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>220600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>227600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>251400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>270600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>281500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6391,191 +6580,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45198</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44743</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44652</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44470</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44379</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44288</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43644</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43553</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43371</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43280</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43189</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43007</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>5100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-22000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>11700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-11800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-11300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-11800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-15600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-31500</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-24000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-10400</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-16000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6607,8 +6805,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6616,88 +6815,91 @@
         <v>3100</v>
       </c>
       <c r="E83" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F83" s="3">
         <v>3000</v>
       </c>
       <c r="G83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H83" s="3">
         <v>3100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>3000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>3100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>3200</v>
       </c>
       <c r="K83" s="3">
         <v>3200</v>
       </c>
       <c r="L83" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M83" s="3">
         <v>3100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>3800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>3900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>3500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>4500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>4900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>4800</v>
-      </c>
-      <c r="T83" s="3">
-        <v>4900</v>
       </c>
       <c r="U83" s="3">
         <v>4900</v>
       </c>
       <c r="V83" s="3">
+        <v>4900</v>
+      </c>
+      <c r="W83" s="3">
         <v>5100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5400</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>5600</v>
       </c>
       <c r="Z83" s="3">
         <v>5600</v>
       </c>
       <c r="AA83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AB83" s="3">
         <v>6000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>5600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>5700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>7700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>9900</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6785,8 +6987,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6874,8 +7079,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6963,8 +7171,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7052,8 +7263,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7141,97 +7355,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-16500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-27500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>7400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>15200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-11000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>30200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>4200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>6600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>2400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>9900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-6600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>9000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-8600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>5700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-3100</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>13100</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-4300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7263,97 +7483,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1900</v>
       </c>
       <c r="G91" s="3">
         <v>-1900</v>
       </c>
       <c r="H91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-2400</v>
       </c>
       <c r="J91" s="3">
         <v>-2400</v>
       </c>
       <c r="K91" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-2900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-5400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-6400</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>7700</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-15100</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7441,8 +7665,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7530,97 +7757,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-1900</v>
       </c>
       <c r="G94" s="3">
         <v>-1900</v>
       </c>
       <c r="H94" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="I94" s="3">
         <v>4900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2400</v>
       </c>
       <c r="J94" s="3">
         <v>-2400</v>
       </c>
       <c r="K94" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-2900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-6000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-11200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2300</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-1400</v>
       </c>
       <c r="X94" s="3">
         <v>-1400</v>
       </c>
       <c r="Y94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-2700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>3700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-2100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7652,8 +7885,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7741,8 +7975,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7830,8 +8067,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7919,8 +8159,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8008,271 +8251,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-38100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-2100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>4700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-8300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>5400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1400</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>6500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>1900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>8400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-5900</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>5000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-600</v>
-      </c>
-      <c r="N101" s="3">
-        <v>600</v>
       </c>
       <c r="O101" s="3">
         <v>600</v>
       </c>
       <c r="P101" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-500</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>400</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>500</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>600</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-500</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-16500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>21100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-32700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>13300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>27800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-21300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>26400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>8600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>3900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>4100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>7500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>2000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-6400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>6800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-2800</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-2300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>10900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-6800</v>
       </c>
     </row>
